--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_21_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_21_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2036686.542456405</v>
+        <v>2033447.490926221</v>
       </c>
     </row>
     <row r="7">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>314.6303480469716</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>298.0245525568519</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>325.4271111929584</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>198.3454425484538</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.348334982414016</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>120.8714752251741</v>
       </c>
       <c r="U11" t="n">
-        <v>162.9558059598997</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>254.9461823839931</v>
       </c>
       <c r="W11" t="n">
-        <v>229.1125155085975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>305.5343095884998</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>47.50700557633979</v>
       </c>
       <c r="C12" t="n">
-        <v>41.26212380565278</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -1460,13 +1460,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>37.12728176658511</v>
+        <v>16.47728428642949</v>
       </c>
       <c r="G12" t="n">
-        <v>13.58363151817258</v>
+        <v>104.9766282510635</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>60.92671257303592</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>89.38346369787061</v>
+        <v>49.10674860499049</v>
       </c>
       <c r="T12" t="n">
         <v>62.5521455480494</v>
       </c>
       <c r="U12" t="n">
-        <v>195.31522490397</v>
+        <v>103.922228171079</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>120.1814150040055</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>119.7078398481435</v>
       </c>
       <c r="X12" t="n">
         <v>83.16972530960516</v>
       </c>
       <c r="Y12" t="n">
-        <v>66.41494330691731</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>18.01700617568666</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>49.68506536304976</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>79.34868637067905</v>
+        <v>79.34868637067903</v>
       </c>
       <c r="T13" t="n">
         <v>142.380234739715</v>
@@ -1593,10 +1593,10 @@
         <v>184.8859711133234</v>
       </c>
       <c r="X13" t="n">
-        <v>144.5674267860225</v>
+        <v>81.17415343252696</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>131.095344892232</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>325.4271111929584</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>311.4844529045257</v>
       </c>
       <c r="H14" t="n">
         <v>198.3454425484538</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.348334982414016</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>120.8714752251741</v>
       </c>
       <c r="U14" t="n">
-        <v>52.95049314069826</v>
+        <v>162.9558059598997</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>288.5297011232922</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>305.243967119846</v>
       </c>
       <c r="Y14" t="n">
-        <v>305.5343095884998</v>
+        <v>195.1057240435915</v>
       </c>
     </row>
     <row r="15">
@@ -1688,22 +1688,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>41.26212380565278</v>
+        <v>59.9025882507883</v>
       </c>
       <c r="D15" t="n">
         <v>24.33518946991052</v>
       </c>
       <c r="E15" t="n">
-        <v>77.00163971969485</v>
+        <v>27.89489111470432</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>16.47728428642949</v>
       </c>
       <c r="G15" t="n">
-        <v>104.9766282510635</v>
+        <v>13.58363151817258</v>
       </c>
       <c r="H15" t="n">
-        <v>60.92671257303592</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>153.9451422809404</v>
+        <v>62.5521455480494</v>
       </c>
       <c r="U15" t="n">
         <v>195.31522490397</v>
       </c>
       <c r="V15" t="n">
-        <v>120.1814150040055</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>119.7078398481435</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>83.16972530960516</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>66.41494330691731</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1770,19 +1770,19 @@
         <v>77.98944198100969</v>
       </c>
       <c r="D16" t="n">
-        <v>66.50670149742811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>67.90871024747275</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>71.59181789762368</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>73.39382188262852</v>
+        <v>71.02213839140556</v>
       </c>
       <c r="H16" t="n">
-        <v>49.68506536304975</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>79.34868637067903</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>142.380234739715</v>
       </c>
       <c r="U16" t="n">
-        <v>152.1989626665051</v>
+        <v>188.5340200529083</v>
       </c>
       <c r="V16" t="n">
         <v>179.7538908769823</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.7259711349536</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>57.01816705366542</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>309.026293874979</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>65.74950212506594</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>311.4844529045257</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>198.3454425484538</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>120.8714752251741</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>288.5297011232922</v>
       </c>
       <c r="X17" t="n">
-        <v>305.243967119846</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>305.5343095884998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>47.50700557633979</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>24.33518946991052</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>27.89489111470432</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>16.47728428642949</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>104.9766282510635</v>
+        <v>13.58363151817258</v>
       </c>
       <c r="H18" t="n">
         <v>60.92671257303592</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>89.38346369787061</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>153.9451422809404</v>
+        <v>62.5521455480494</v>
       </c>
       <c r="U18" t="n">
-        <v>155.0385098110899</v>
+        <v>103.922228171079</v>
       </c>
       <c r="V18" t="n">
         <v>120.1814150040055</v>
@@ -1988,10 +1988,10 @@
         <v>119.7078398481435</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>83.16972530960516</v>
       </c>
       <c r="Y18" t="n">
-        <v>66.41494330691731</v>
+        <v>115.5216919119079</v>
       </c>
     </row>
     <row r="19">
@@ -2010,16 +2010,16 @@
         <v>66.50670149742811</v>
       </c>
       <c r="E19" t="n">
-        <v>4.515436893977451</v>
+        <v>67.90871024747275</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>29.30189602316993</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>49.68506536304975</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>79.34868637067903</v>
       </c>
       <c r="T19" t="n">
-        <v>142.380234739715</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>188.5340200529083</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>217.4200118834515</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>318.8038165953812</v>
       </c>
       <c r="F20" t="n">
-        <v>325.4271111929584</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>311.4844529045257</v>
+        <v>93.15730647757456</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>198.3454425484538</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.348334982414016</v>
       </c>
       <c r="T20" t="n">
         <v>120.8714752251741</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>254.9461823839931</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>305.5343095884998</v>
       </c>
     </row>
     <row r="21">
@@ -2162,16 +2162,16 @@
         <v>47.50700557633979</v>
       </c>
       <c r="C21" t="n">
-        <v>41.26212380565278</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>24.33518946991052</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>27.89489111470432</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>16.47728428642949</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
         <v>13.58363151817258</v>
@@ -2213,22 +2213,22 @@
         <v>89.38346369787061</v>
       </c>
       <c r="T21" t="n">
-        <v>83.20214302820521</v>
+        <v>153.9451422809404</v>
       </c>
       <c r="U21" t="n">
-        <v>195.31522490397</v>
+        <v>124.5722256512349</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>120.1814150040055</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>119.7078398481435</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>83.16972530960516</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>66.41494330691731</v>
       </c>
     </row>
     <row r="22">
@@ -2247,13 +2247,13 @@
         <v>66.50670149742811</v>
       </c>
       <c r="E22" t="n">
-        <v>67.90871024747275</v>
+        <v>4.515436893977451</v>
       </c>
       <c r="F22" t="n">
-        <v>71.59181789762368</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>73.39382188262852</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>179.7538908769823</v>
       </c>
       <c r="W22" t="n">
-        <v>121.0744847655982</v>
+        <v>184.8859711133234</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>144.5674267860225</v>
       </c>
       <c r="Y22" t="n">
         <v>131.095344892232</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.7259711349536</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>314.6303480469716</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>309.026293874979</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>318.8038165953812</v>
+        <v>6.230421566464813</v>
       </c>
       <c r="F23" t="n">
         <v>325.4271111929584</v>
       </c>
       <c r="G23" t="n">
-        <v>102.8913180560717</v>
+        <v>311.4844529045257</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>198.3454425484538</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>120.8714752251741</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>162.9558059598997</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>254.9461823839931</v>
       </c>
       <c r="W23" t="n">
         <v>288.5297011232922</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>305.243967119846</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.42971259721298</v>
+        <v>150.821439391969</v>
       </c>
       <c r="C25" t="n">
-        <v>77.98944198100969</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2490,10 +2490,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.7868186155195</v>
+        <v>73.39382188262852</v>
       </c>
       <c r="H25" t="n">
-        <v>106.0767921578055</v>
+        <v>49.68506536304975</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>377.1198986756459</v>
       </c>
       <c r="D26" t="n">
-        <v>371.5158445036534</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.2933672240556</v>
+        <v>177.6633881727729</v>
       </c>
       <c r="F26" t="n">
-        <v>205.0892275582946</v>
+        <v>387.9166618216327</v>
       </c>
       <c r="G26" t="n">
         <v>373.9740035331999</v>
       </c>
       <c r="H26" t="n">
-        <v>260.8349931771281</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.83788561108832</v>
+        <v>64.83788561108834</v>
       </c>
       <c r="T26" t="n">
         <v>183.3610258538484</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>225.445356588574</v>
       </c>
       <c r="V26" t="n">
-        <v>317.4357330126675</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>351.0192517519665</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>368.0238602171742</v>
       </c>
     </row>
     <row r="27">
@@ -2721,7 +2721,7 @@
         <v>128.9962521261024</v>
       </c>
       <c r="E28" t="n">
-        <v>130.398260876147</v>
+        <v>130.3982608761471</v>
       </c>
       <c r="F28" t="n">
         <v>134.081368526298</v>
@@ -2730,10 +2730,10 @@
         <v>135.8833725113028</v>
       </c>
       <c r="H28" t="n">
-        <v>112.1746159917241</v>
+        <v>112.1746159917242</v>
       </c>
       <c r="I28" t="n">
-        <v>62.48955062867431</v>
+        <v>62.48955062867432</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.94722649749922</v>
+        <v>19.94722649749944</v>
       </c>
       <c r="S28" t="n">
-        <v>141.8382369993533</v>
+        <v>141.8382369993534</v>
       </c>
       <c r="T28" t="n">
         <v>204.8697853683893</v>
       </c>
       <c r="U28" t="n">
-        <v>251.0235706815826</v>
+        <v>251.0235706815827</v>
       </c>
       <c r="V28" t="n">
         <v>242.2434415056566</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>21.50192885871617</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>377.1198986756459</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>371.5158445036534</v>
       </c>
       <c r="E29" t="n">
         <v>381.2933672240556</v>
       </c>
       <c r="F29" t="n">
-        <v>387.9166618216327</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>373.9740035331999</v>
+        <v>373.9740035332</v>
       </c>
       <c r="H29" t="n">
-        <v>260.8349931771281</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>64.83788561108837</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>183.3610258538484</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>18.56567675222517</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>351.0192517519665</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>367.7335177485203</v>
+        <v>367.7335177485204</v>
       </c>
       <c r="Y29" t="n">
         <v>368.0238602171742</v>
@@ -2955,7 +2955,7 @@
         <v>140.478992609684</v>
       </c>
       <c r="D31" t="n">
-        <v>128.9962521261024</v>
+        <v>128.9962521261025</v>
       </c>
       <c r="E31" t="n">
         <v>130.3982608761471</v>
@@ -2964,13 +2964,13 @@
         <v>134.081368526298</v>
       </c>
       <c r="G31" t="n">
-        <v>135.8833725113028</v>
+        <v>135.8833725113029</v>
       </c>
       <c r="H31" t="n">
         <v>112.1746159917241</v>
       </c>
       <c r="I31" t="n">
-        <v>62.48955062867432</v>
+        <v>62.48955062867434</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>328.6421151762625</v>
+        <v>328.6421151762624</v>
       </c>
       <c r="C32" t="n">
-        <v>328.5464920882804</v>
+        <v>105.2142488417625</v>
       </c>
       <c r="D32" t="n">
-        <v>322.9424379162879</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>339.3432552342672</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>325.4005969458344</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>212.2615865897626</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>16.26447902372284</v>
+        <v>16.26447902372281</v>
       </c>
       <c r="T32" t="n">
-        <v>106.2823200348148</v>
+        <v>134.7876192664829</v>
       </c>
       <c r="U32" t="n">
         <v>176.8719500012085</v>
@@ -3091,13 +3091,13 @@
         <v>268.8623264253019</v>
       </c>
       <c r="W32" t="n">
-        <v>302.445845164601</v>
+        <v>302.4458451646009</v>
       </c>
       <c r="X32" t="n">
-        <v>319.1601111611549</v>
+        <v>319.1601111611548</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>319.4504536298086</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>91.90558602231852</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>80.42284553873694</v>
+        <v>80.42284553873691</v>
       </c>
       <c r="E34" t="n">
-        <v>138.8859232333287</v>
+        <v>81.82485428878155</v>
       </c>
       <c r="F34" t="n">
-        <v>85.50796193893251</v>
+        <v>85.50796193893248</v>
       </c>
       <c r="G34" t="n">
-        <v>164.7868186155195</v>
+        <v>87.30996592393731</v>
       </c>
       <c r="H34" t="n">
-        <v>141.0780620959407</v>
+        <v>63.60120940435855</v>
       </c>
       <c r="I34" t="n">
-        <v>91.39299673289096</v>
+        <v>13.91614404130879</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>48.85067260171588</v>
       </c>
       <c r="S34" t="n">
-        <v>93.26483041198786</v>
+        <v>93.26483041198783</v>
       </c>
       <c r="T34" t="n">
         <v>156.2963787810238</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9270167857993</v>
+        <v>210.660560437049</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>198.8021151546322</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>158.4835708273313</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.0114889335408</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>328.6421151762625</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.788144374123385</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>325.4005969458345</v>
+        <v>325.4005969458344</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2615865897627</v>
+        <v>212.2615865897626</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.26447902372284</v>
+        <v>16.26447902372281</v>
       </c>
       <c r="T35" t="n">
         <v>134.7876192664829</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>176.8719500012085</v>
       </c>
       <c r="V35" t="n">
-        <v>268.8623264253019</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>108.9701823446709</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>319.4504536298086</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>61.42314961764862</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>55.1782678469616</v>
+        <v>55.8921097295381</v>
       </c>
       <c r="D36" t="n">
-        <v>38.25133351121934</v>
+        <v>38.25133351121931</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>41.81103515601312</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>30.39342832773829</v>
       </c>
       <c r="G36" t="n">
         <v>104.9766282510635</v>
       </c>
       <c r="H36" t="n">
-        <v>60.92671257303592</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>11.90661100628848</v>
+        <v>11.90661100628845</v>
       </c>
       <c r="T36" t="n">
-        <v>76.46828958935822</v>
+        <v>76.46828958935819</v>
       </c>
       <c r="U36" t="n">
         <v>117.8383722123878</v>
@@ -3407,13 +3407,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>133.6239838894524</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>114.3498513520363</v>
+        <v>97.08586935091395</v>
       </c>
       <c r="Y36" t="n">
-        <v>80.33108734822613</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>91.90558602231852</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.42284553873694</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>81.82485428878158</v>
+        <v>81.82485428878155</v>
       </c>
       <c r="F37" t="n">
-        <v>85.50796193893251</v>
+        <v>85.50796193893248</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>87.30996592393731</v>
       </c>
       <c r="H37" t="n">
-        <v>63.60120940435858</v>
+        <v>63.60120940435855</v>
       </c>
       <c r="I37" t="n">
-        <v>13.91614404130882</v>
+        <v>13.91614404130879</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>93.26483041198786</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>156.2963787810238</v>
       </c>
       <c r="U37" t="n">
-        <v>87.59622632127049</v>
+        <v>109.583143589353</v>
       </c>
       <c r="V37" t="n">
         <v>193.6700349182911</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>328.5464920882804</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>332.7199606366901</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>333.438174552023</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>325.4005969458345</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>16.26447902372281</v>
       </c>
       <c r="T38" t="n">
-        <v>134.7876192664829</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>176.8719500012085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>268.8623264253019</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>302.4458451646009</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>201.0157750983763</v>
       </c>
       <c r="Y38" t="n">
-        <v>167.6605164004601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>61.42314961764859</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>55.17826784696157</v>
       </c>
       <c r="D39" t="n">
-        <v>38.25133351121934</v>
+        <v>38.25133351121931</v>
       </c>
       <c r="E39" t="n">
-        <v>41.81103515601315</v>
+        <v>41.81103515601312</v>
       </c>
       <c r="F39" t="n">
-        <v>30.39342832773832</v>
+        <v>30.39342832773829</v>
       </c>
       <c r="G39" t="n">
-        <v>28.21361744205758</v>
+        <v>27.49977555948138</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>89.38346369787061</v>
       </c>
       <c r="T39" t="n">
-        <v>76.46828958935822</v>
+        <v>153.9451422809404</v>
       </c>
       <c r="U39" t="n">
-        <v>117.8383722123878</v>
+        <v>195.31522490397</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>133.6239838894524</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>97.79971123349034</v>
       </c>
       <c r="Y39" t="n">
-        <v>80.33108734822613</v>
+        <v>80.33108734822611</v>
       </c>
     </row>
     <row r="40">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>108.3458566385218</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>91.90558602231852</v>
+        <v>91.90558602231849</v>
       </c>
       <c r="D40" t="n">
-        <v>80.42284553873694</v>
+        <v>80.42284553873691</v>
       </c>
       <c r="E40" t="n">
-        <v>81.82485428878158</v>
+        <v>81.82485428878155</v>
       </c>
       <c r="F40" t="n">
-        <v>9.506848507312396</v>
+        <v>85.50796193893248</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>87.30996592393731</v>
       </c>
       <c r="H40" t="n">
-        <v>63.60120940435858</v>
+        <v>63.60120940435855</v>
       </c>
       <c r="I40" t="n">
-        <v>13.91614404130882</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>93.26483041198786</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>156.2963787810238</v>
       </c>
       <c r="U40" t="n">
-        <v>202.4501640942172</v>
+        <v>202.4501640942171</v>
       </c>
       <c r="V40" t="n">
-        <v>193.6700349182911</v>
+        <v>87.40221582722096</v>
       </c>
       <c r="W40" t="n">
         <v>198.8021151546322</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>158.4835708273313</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7.003501421905823</v>
+      </c>
+      <c r="G41" t="n">
         <v>333.438174552023</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>333.438174552023</v>
-      </c>
-      <c r="F41" t="n">
-        <v>333.438174552023</v>
-      </c>
-      <c r="G41" t="n">
-        <v>7.359386323502952</v>
       </c>
       <c r="H41" t="n">
         <v>241.1650326939793</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>45.1679251279395</v>
+        <v>45.16792512793945</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>163.6910653706995</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.7753961054251</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>297.7657725295186</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>90.32659572186527</v>
+        <v>90.32659572186523</v>
       </c>
       <c r="C42" t="n">
-        <v>84.08171395117826</v>
+        <v>84.08171395117822</v>
       </c>
       <c r="D42" t="n">
-        <v>67.154779615436</v>
+        <v>67.15477961543596</v>
       </c>
       <c r="E42" t="n">
-        <v>70.7144812602296</v>
+        <v>70.71448126022976</v>
       </c>
       <c r="F42" t="n">
-        <v>59.29687443195498</v>
+        <v>59.29687443195493</v>
       </c>
       <c r="G42" t="n">
-        <v>56.40322166369806</v>
+        <v>56.40322166369802</v>
       </c>
       <c r="H42" t="n">
-        <v>12.35330598567044</v>
+        <v>12.35330598567071</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>40.81005711050513</v>
+        <v>40.81005711050508</v>
       </c>
       <c r="T42" t="n">
-        <v>105.3717356935749</v>
+        <v>105.3717356935748</v>
       </c>
       <c r="U42" t="n">
         <v>146.7418183166045</v>
@@ -3887,7 +3887,7 @@
         <v>125.9893154551306</v>
       </c>
       <c r="Y42" t="n">
-        <v>109.2345334524428</v>
+        <v>109.2345334524427</v>
       </c>
     </row>
     <row r="43">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>137.2493027427384</v>
       </c>
       <c r="C43" t="n">
-        <v>120.8090321265352</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>116.213412028154</v>
+        <v>34.16042046706073</v>
       </c>
       <c r="H43" t="n">
-        <v>92.50465550857524</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.81959014552547</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2772660143503956</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>122.1682765162045</v>
       </c>
       <c r="T43" t="n">
-        <v>117.5819829823555</v>
+        <v>185.1998248852404</v>
       </c>
       <c r="U43" t="n">
         <v>231.3536101984338</v>
       </c>
       <c r="V43" t="n">
-        <v>222.5734810225078</v>
+        <v>222.5734810225077</v>
       </c>
       <c r="W43" t="n">
-        <v>227.7055612588489</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>187.3870169315479</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>173.9149350377574</v>
       </c>
     </row>
     <row r="44">
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>215.8624919205444</v>
       </c>
       <c r="D44" t="n">
-        <v>52.52731145144227</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>333.438174552023</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>333.438174552023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>333.438174552023</v>
+        <v>333.4381745520229</v>
       </c>
       <c r="H44" t="n">
         <v>241.1650326939793</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.7753961054251</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>297.7657725295186</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>90.32659572186527</v>
+        <v>90.32659572186523</v>
       </c>
       <c r="C45" t="n">
-        <v>84.08171395117826</v>
+        <v>84.08171395117822</v>
       </c>
       <c r="D45" t="n">
-        <v>67.154779615436</v>
+        <v>67.15477961543596</v>
       </c>
       <c r="E45" t="n">
-        <v>70.7144812602298</v>
+        <v>70.71448126022976</v>
       </c>
       <c r="F45" t="n">
-        <v>59.29687443195498</v>
+        <v>59.29687443195493</v>
       </c>
       <c r="G45" t="n">
-        <v>56.40322166369806</v>
+        <v>56.40322166369802</v>
       </c>
       <c r="H45" t="n">
-        <v>12.35330598567044</v>
+        <v>12.3533059856704</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>40.81005711050513</v>
+        <v>40.81005711050508</v>
       </c>
       <c r="T45" t="n">
         <v>105.3717356935749</v>
@@ -4124,7 +4124,7 @@
         <v>125.9893154551306</v>
       </c>
       <c r="Y45" t="n">
-        <v>109.2345334524428</v>
+        <v>109.2345334524427</v>
       </c>
     </row>
     <row r="46">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>137.2493027427384</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>120.8090321265351</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>110.7283003929982</v>
       </c>
       <c r="F46" t="n">
-        <v>114.4114080431492</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>116.213412028154</v>
       </c>
       <c r="H46" t="n">
-        <v>85.42809530898236</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>42.81959014552547</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2772660143503956</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>122.1682765162045</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>185.1998248852404</v>
       </c>
       <c r="U46" t="n">
-        <v>231.3536101984338</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>208.7144174354274</v>
       </c>
       <c r="W46" t="n">
-        <v>227.7055612588489</v>
+        <v>227.7055612588488</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>187.3870169315479</v>
       </c>
       <c r="Y46" t="n">
-        <v>173.9149350377575</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>555.738239561548</v>
+        <v>645.5183879074179</v>
       </c>
       <c r="C11" t="n">
-        <v>555.738239561548</v>
+        <v>327.7099555367396</v>
       </c>
       <c r="D11" t="n">
-        <v>555.738239561548</v>
+        <v>26.67505396416183</v>
       </c>
       <c r="E11" t="n">
-        <v>555.738239561548</v>
+        <v>26.67505396416183</v>
       </c>
       <c r="F11" t="n">
-        <v>227.0239858312869</v>
+        <v>26.67505396416183</v>
       </c>
       <c r="G11" t="n">
-        <v>227.0239858312869</v>
+        <v>26.67505396416183</v>
       </c>
       <c r="H11" t="n">
         <v>26.67505396416183</v>
@@ -5041,19 +5041,19 @@
         <v>26.67505396416183</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2671461883815</v>
+        <v>102.2671461883812</v>
       </c>
       <c r="K11" t="n">
-        <v>236.1091970936759</v>
+        <v>236.1091970936756</v>
       </c>
       <c r="L11" t="n">
-        <v>417.0973099178785</v>
+        <v>417.0973099178783</v>
       </c>
       <c r="M11" t="n">
-        <v>631.3075802755872</v>
+        <v>631.3075802755869</v>
       </c>
       <c r="N11" t="n">
-        <v>850.8525891510535</v>
+        <v>850.8525891510533</v>
       </c>
       <c r="O11" t="n">
         <v>1052.761934663442</v>
@@ -5068,25 +5068,25 @@
         <v>1333.752698208092</v>
       </c>
       <c r="S11" t="n">
-        <v>1331.3806426703</v>
+        <v>1333.752698208092</v>
       </c>
       <c r="T11" t="n">
-        <v>1209.288243452952</v>
+        <v>1211.660298990744</v>
       </c>
       <c r="U11" t="n">
-        <v>1044.686419251033</v>
+        <v>1211.660298990744</v>
       </c>
       <c r="V11" t="n">
-        <v>787.1650229035656</v>
+        <v>954.1389026432764</v>
       </c>
       <c r="W11" t="n">
-        <v>555.738239561548</v>
+        <v>954.1389026432764</v>
       </c>
       <c r="X11" t="n">
-        <v>555.738239561548</v>
+        <v>954.1389026432764</v>
       </c>
       <c r="Y11" t="n">
-        <v>555.738239561548</v>
+        <v>645.5183879074179</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>356.9670854195227</v>
+        <v>582.2829526504947</v>
       </c>
       <c r="C12" t="n">
-        <v>315.2881724845199</v>
+        <v>448.2878813994404</v>
       </c>
       <c r="D12" t="n">
-        <v>198.3910147039123</v>
+        <v>331.3907236188328</v>
       </c>
       <c r="E12" t="n">
-        <v>77.89819869624031</v>
+        <v>210.8979076111608</v>
       </c>
       <c r="F12" t="n">
-        <v>40.39589388150787</v>
+        <v>194.2541861097169</v>
       </c>
       <c r="G12" t="n">
-        <v>26.67505396416183</v>
+        <v>88.21718787631934</v>
       </c>
       <c r="H12" t="n">
         <v>26.67505396416183</v>
       </c>
       <c r="I12" t="n">
-        <v>26.67505396416183</v>
+        <v>38.50189322000941</v>
       </c>
       <c r="J12" t="n">
-        <v>133.5106568982645</v>
+        <v>319.5712014481309</v>
       </c>
       <c r="K12" t="n">
-        <v>463.6144497047673</v>
+        <v>415.1480079593194</v>
       </c>
       <c r="L12" t="n">
-        <v>610.8898901374114</v>
+        <v>562.4234483919636</v>
       </c>
       <c r="M12" t="n">
-        <v>790.5929141983228</v>
+        <v>742.1264724528751</v>
       </c>
       <c r="N12" t="n">
-        <v>980.8876437739674</v>
+        <v>932.4212020285197</v>
       </c>
       <c r="O12" t="n">
-        <v>1145.971127187139</v>
+        <v>1097.504685441691</v>
       </c>
       <c r="P12" t="n">
-        <v>1270.635284814667</v>
+        <v>1222.168843069219</v>
       </c>
       <c r="Q12" t="n">
         <v>1333.752698208092</v>
@@ -5147,25 +5147,25 @@
         <v>1333.752698208092</v>
       </c>
       <c r="S12" t="n">
-        <v>1243.466371240546</v>
+        <v>1284.149921839414</v>
       </c>
       <c r="T12" t="n">
-        <v>1180.282385838476</v>
+        <v>1220.965936437344</v>
       </c>
       <c r="U12" t="n">
-        <v>982.9942798748696</v>
+        <v>1115.99398878979</v>
       </c>
       <c r="V12" t="n">
-        <v>769.2827528679034</v>
+        <v>994.5986200988752</v>
       </c>
       <c r="W12" t="n">
-        <v>556.0495846042321</v>
+        <v>873.6816101512555</v>
       </c>
       <c r="X12" t="n">
-        <v>472.0397610591764</v>
+        <v>789.6717866061998</v>
       </c>
       <c r="Y12" t="n">
-        <v>404.9539597390579</v>
+        <v>630.2698269700298</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>309.6113421102699</v>
+        <v>241.2254112630614</v>
       </c>
       <c r="C13" t="n">
-        <v>230.8341279880379</v>
+        <v>162.4481971408294</v>
       </c>
       <c r="D13" t="n">
-        <v>163.6556416269994</v>
+        <v>95.26971077979088</v>
       </c>
       <c r="E13" t="n">
-        <v>95.06098481137035</v>
+        <v>26.67505396416183</v>
       </c>
       <c r="F13" t="n">
-        <v>95.06098481137035</v>
+        <v>26.67505396416183</v>
       </c>
       <c r="G13" t="n">
-        <v>76.86198867431311</v>
+        <v>26.67505396416183</v>
       </c>
       <c r="H13" t="n">
         <v>26.67505396416183</v>
@@ -5199,22 +5199,22 @@
         <v>26.67505396416183</v>
       </c>
       <c r="J13" t="n">
-        <v>31.12550063167541</v>
+        <v>31.12550063167543</v>
       </c>
       <c r="K13" t="n">
-        <v>70.38633918130353</v>
+        <v>236.7589137731205</v>
       </c>
       <c r="L13" t="n">
-        <v>132.7385435606061</v>
+        <v>299.1111181524232</v>
       </c>
       <c r="M13" t="n">
-        <v>462.8423363671088</v>
+        <v>629.2149109589259</v>
       </c>
       <c r="N13" t="n">
-        <v>792.9461291736116</v>
+        <v>959.3187037654286</v>
       </c>
       <c r="O13" t="n">
-        <v>1028.525013098813</v>
+        <v>1289.422496571931</v>
       </c>
       <c r="P13" t="n">
         <v>1328.919837034806</v>
@@ -5241,10 +5241,10 @@
         <v>551.022594012528</v>
       </c>
       <c r="X13" t="n">
-        <v>404.9948901882628</v>
+        <v>469.0284996362381</v>
       </c>
       <c r="Y13" t="n">
-        <v>404.9948901882628</v>
+        <v>336.6089593410543</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>555.738239561548</v>
+        <v>541.6547463409088</v>
       </c>
       <c r="C14" t="n">
-        <v>555.738239561548</v>
+        <v>541.6547463409088</v>
       </c>
       <c r="D14" t="n">
-        <v>555.738239561548</v>
+        <v>541.6547463409088</v>
       </c>
       <c r="E14" t="n">
-        <v>555.738239561548</v>
+        <v>541.6547463409088</v>
       </c>
       <c r="F14" t="n">
-        <v>227.0239858312869</v>
+        <v>541.6547463409088</v>
       </c>
       <c r="G14" t="n">
         <v>227.0239858312869</v>
@@ -5281,16 +5281,16 @@
         <v>102.2671461883813</v>
       </c>
       <c r="K14" t="n">
-        <v>236.1091970936757</v>
+        <v>236.1091970936761</v>
       </c>
       <c r="L14" t="n">
-        <v>417.0973099178784</v>
+        <v>417.0973099178786</v>
       </c>
       <c r="M14" t="n">
-        <v>631.3075802755869</v>
+        <v>631.3075802755872</v>
       </c>
       <c r="N14" t="n">
-        <v>850.8525891510533</v>
+        <v>850.8525891510535</v>
       </c>
       <c r="O14" t="n">
         <v>1052.761934663442</v>
@@ -5305,25 +5305,25 @@
         <v>1333.752698208092</v>
       </c>
       <c r="S14" t="n">
-        <v>1331.3806426703</v>
+        <v>1333.752698208092</v>
       </c>
       <c r="T14" t="n">
-        <v>1209.288243452952</v>
+        <v>1211.660298990744</v>
       </c>
       <c r="U14" t="n">
-        <v>1155.802896846187</v>
+        <v>1047.058474788826</v>
       </c>
       <c r="V14" t="n">
-        <v>1155.802896846187</v>
+        <v>1047.058474788826</v>
       </c>
       <c r="W14" t="n">
-        <v>864.3587542974064</v>
+        <v>1047.058474788826</v>
       </c>
       <c r="X14" t="n">
-        <v>864.3587542974064</v>
+        <v>738.7312352738295</v>
       </c>
       <c r="Y14" t="n">
-        <v>555.738239561548</v>
+        <v>541.6547463409088</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>447.253412387069</v>
+        <v>170.3049374389146</v>
       </c>
       <c r="C15" t="n">
-        <v>405.5744994520662</v>
+        <v>109.7972725391284</v>
       </c>
       <c r="D15" t="n">
-        <v>380.9934999875101</v>
+        <v>85.21627307457234</v>
       </c>
       <c r="E15" t="n">
-        <v>303.2140659272123</v>
+        <v>57.03961538295182</v>
       </c>
       <c r="F15" t="n">
-        <v>194.2541861097169</v>
+        <v>40.39589388150788</v>
       </c>
       <c r="G15" t="n">
-        <v>88.21718787631934</v>
+        <v>26.67505396416184</v>
       </c>
       <c r="H15" t="n">
         <v>26.67505396416184</v>
@@ -5357,28 +5357,28 @@
         <v>26.67505396416184</v>
       </c>
       <c r="J15" t="n">
-        <v>64.07595821765</v>
+        <v>307.7443621922833</v>
       </c>
       <c r="K15" t="n">
-        <v>159.6527647288385</v>
+        <v>403.3211687034718</v>
       </c>
       <c r="L15" t="n">
-        <v>306.9282051614827</v>
+        <v>550.5966091361159</v>
       </c>
       <c r="M15" t="n">
-        <v>486.631229222394</v>
+        <v>730.2996331970273</v>
       </c>
       <c r="N15" t="n">
-        <v>676.9259587980387</v>
+        <v>920.594362772672</v>
       </c>
       <c r="O15" t="n">
-        <v>842.0094422112102</v>
+        <v>1085.677846185843</v>
       </c>
       <c r="P15" t="n">
-        <v>1003.648905401589</v>
+        <v>1210.342003813372</v>
       </c>
       <c r="Q15" t="n">
-        <v>1333.752698208092</v>
+        <v>1273.459417206796</v>
       </c>
       <c r="R15" t="n">
         <v>1333.752698208092</v>
@@ -5387,22 +5387,22 @@
         <v>1333.752698208092</v>
       </c>
       <c r="T15" t="n">
-        <v>1178.25255448997</v>
+        <v>1270.568712806022</v>
       </c>
       <c r="U15" t="n">
-        <v>980.9644485263643</v>
+        <v>1073.280606842416</v>
       </c>
       <c r="V15" t="n">
         <v>859.5690798354497</v>
       </c>
       <c r="W15" t="n">
-        <v>738.6520698878298</v>
+        <v>646.3359115717784</v>
       </c>
       <c r="X15" t="n">
-        <v>654.6422463427741</v>
+        <v>470.0099297106712</v>
       </c>
       <c r="Y15" t="n">
-        <v>587.5564450226557</v>
+        <v>310.6079700745012</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>437.8624871653866</v>
+        <v>177.1918018150863</v>
       </c>
       <c r="C16" t="n">
-        <v>359.0852730431546</v>
+        <v>98.41458769285433</v>
       </c>
       <c r="D16" t="n">
-        <v>291.9067866821161</v>
+        <v>98.41458769285433</v>
       </c>
       <c r="E16" t="n">
-        <v>223.3121298664871</v>
+        <v>98.41458769285433</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9971622931298</v>
+        <v>98.41458769285433</v>
       </c>
       <c r="G16" t="n">
-        <v>76.86198867431311</v>
+        <v>26.67505396416184</v>
       </c>
       <c r="H16" t="n">
         <v>26.67505396416184</v>
@@ -5439,19 +5439,19 @@
         <v>31.12550063167543</v>
       </c>
       <c r="K16" t="n">
-        <v>70.38633918130357</v>
+        <v>276.6665327670177</v>
       </c>
       <c r="L16" t="n">
-        <v>132.7385435606062</v>
+        <v>606.7703255735205</v>
       </c>
       <c r="M16" t="n">
-        <v>462.8423363671089</v>
+        <v>936.8741183800232</v>
       </c>
       <c r="N16" t="n">
-        <v>698.4212202923106</v>
+        <v>1005.523111172211</v>
       </c>
       <c r="O16" t="n">
-        <v>1028.525013098813</v>
+        <v>1060.704766165621</v>
       </c>
       <c r="P16" t="n">
         <v>1328.919837034806</v>
@@ -5463,25 +5463,25 @@
         <v>1333.752698208092</v>
       </c>
       <c r="S16" t="n">
-        <v>1333.752698208092</v>
+        <v>1253.602509954881</v>
       </c>
       <c r="T16" t="n">
-        <v>1333.752698208092</v>
+        <v>1109.784091025876</v>
       </c>
       <c r="U16" t="n">
-        <v>1180.016372282329</v>
+        <v>919.3456869320289</v>
       </c>
       <c r="V16" t="n">
-        <v>998.4467855379027</v>
+        <v>737.7761001876023</v>
       </c>
       <c r="W16" t="n">
-        <v>811.6932793628285</v>
+        <v>551.0225940125282</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6655755385634</v>
+        <v>404.9948901882631</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.2460352433795</v>
+        <v>272.5753498930792</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>398.8999226087993</v>
+        <v>920.2161564419644</v>
       </c>
       <c r="C17" t="n">
-        <v>341.3058144737838</v>
+        <v>920.2161564419644</v>
       </c>
       <c r="D17" t="n">
-        <v>341.3058144737838</v>
+        <v>608.0683848510764</v>
       </c>
       <c r="E17" t="n">
-        <v>341.3058144737838</v>
+        <v>541.6547463409088</v>
       </c>
       <c r="F17" t="n">
-        <v>341.3058144737838</v>
+        <v>541.6547463409088</v>
       </c>
       <c r="G17" t="n">
-        <v>26.67505396416184</v>
+        <v>227.0239858312869</v>
       </c>
       <c r="H17" t="n">
         <v>26.67505396416184</v>
@@ -5545,22 +5545,22 @@
         <v>1333.752698208092</v>
       </c>
       <c r="T17" t="n">
-        <v>1333.752698208092</v>
+        <v>1211.660298990744</v>
       </c>
       <c r="U17" t="n">
-        <v>1333.752698208092</v>
+        <v>1211.660298990744</v>
       </c>
       <c r="V17" t="n">
-        <v>1333.752698208092</v>
+        <v>1211.660298990744</v>
       </c>
       <c r="W17" t="n">
-        <v>1333.752698208092</v>
+        <v>920.2161564419644</v>
       </c>
       <c r="X17" t="n">
-        <v>1025.425458693096</v>
+        <v>920.2161564419644</v>
       </c>
       <c r="Y17" t="n">
-        <v>716.8049439572374</v>
+        <v>920.2161564419644</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>397.6506360183917</v>
+        <v>582.2829526504947</v>
       </c>
       <c r="C18" t="n">
-        <v>263.6555647673374</v>
+        <v>448.2878813994404</v>
       </c>
       <c r="D18" t="n">
-        <v>239.0745653027813</v>
+        <v>331.3907236188328</v>
       </c>
       <c r="E18" t="n">
         <v>210.8979076111608</v>
       </c>
       <c r="F18" t="n">
-        <v>194.2541861097169</v>
+        <v>101.9380277936654</v>
       </c>
       <c r="G18" t="n">
         <v>88.21718787631934</v>
@@ -5597,22 +5597,22 @@
         <v>64.07595821765</v>
       </c>
       <c r="K18" t="n">
-        <v>236.246780921193</v>
+        <v>159.6527647288385</v>
       </c>
       <c r="L18" t="n">
-        <v>383.5222213538372</v>
+        <v>306.9282051614827</v>
       </c>
       <c r="M18" t="n">
-        <v>563.2252454147485</v>
+        <v>486.631229222394</v>
       </c>
       <c r="N18" t="n">
-        <v>893.3290382212513</v>
+        <v>676.9259587980387</v>
       </c>
       <c r="O18" t="n">
-        <v>1058.412521634423</v>
+        <v>842.0094422112102</v>
       </c>
       <c r="P18" t="n">
-        <v>1183.076679261951</v>
+        <v>966.6735998387383</v>
       </c>
       <c r="Q18" t="n">
         <v>1246.194092655376</v>
@@ -5621,25 +5621,25 @@
         <v>1333.752698208092</v>
       </c>
       <c r="S18" t="n">
-        <v>1243.466371240546</v>
+        <v>1333.752698208092</v>
       </c>
       <c r="T18" t="n">
-        <v>1087.966227522424</v>
+        <v>1270.568712806022</v>
       </c>
       <c r="U18" t="n">
-        <v>931.3616721576871</v>
+        <v>1165.596765158467</v>
       </c>
       <c r="V18" t="n">
-        <v>809.9663034667724</v>
+        <v>1044.201396467553</v>
       </c>
       <c r="W18" t="n">
-        <v>689.0492935191526</v>
+        <v>923.2843865199329</v>
       </c>
       <c r="X18" t="n">
-        <v>512.7233116580453</v>
+        <v>839.2745629748772</v>
       </c>
       <c r="Y18" t="n">
-        <v>445.6375103379269</v>
+        <v>722.5859852860814</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.1918018150863</v>
+        <v>321.0102207440914</v>
       </c>
       <c r="C19" t="n">
-        <v>98.41458769285433</v>
+        <v>242.2330066218594</v>
       </c>
       <c r="D19" t="n">
-        <v>31.23610133181583</v>
+        <v>175.0545202608209</v>
       </c>
       <c r="E19" t="n">
-        <v>26.67505396416184</v>
+        <v>106.4598634451918</v>
       </c>
       <c r="F19" t="n">
-        <v>26.67505396416184</v>
+        <v>106.4598634451918</v>
       </c>
       <c r="G19" t="n">
-        <v>26.67505396416184</v>
+        <v>76.86198867431311</v>
       </c>
       <c r="H19" t="n">
         <v>26.67505396416184</v>
@@ -5679,16 +5679,16 @@
         <v>70.38633918130357</v>
       </c>
       <c r="L19" t="n">
-        <v>132.7385435606062</v>
+        <v>400.4901319878063</v>
       </c>
       <c r="M19" t="n">
-        <v>462.8423363671089</v>
+        <v>730.593924794309</v>
       </c>
       <c r="N19" t="n">
-        <v>698.4212202923106</v>
+        <v>959.3187037654288</v>
       </c>
       <c r="O19" t="n">
-        <v>1028.525013098813</v>
+        <v>1289.422496571932</v>
       </c>
       <c r="P19" t="n">
         <v>1328.919837034806</v>
@@ -5703,22 +5703,22 @@
         <v>1253.602509954881</v>
       </c>
       <c r="T19" t="n">
-        <v>1109.784091025876</v>
+        <v>1253.602509954881</v>
       </c>
       <c r="U19" t="n">
-        <v>919.3456869320289</v>
+        <v>1063.164105861034</v>
       </c>
       <c r="V19" t="n">
-        <v>737.7761001876023</v>
+        <v>881.5945191166073</v>
       </c>
       <c r="W19" t="n">
-        <v>551.0225940125282</v>
+        <v>694.8410129415332</v>
       </c>
       <c r="X19" t="n">
-        <v>404.9948901882631</v>
+        <v>548.8133091172681</v>
       </c>
       <c r="Y19" t="n">
-        <v>272.5753498930792</v>
+        <v>416.3937688220843</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1211.660298990744</v>
+        <v>643.1463323696262</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.660298990744</v>
+        <v>643.1463323696262</v>
       </c>
       <c r="D20" t="n">
-        <v>992.0441253710965</v>
+        <v>643.1463323696262</v>
       </c>
       <c r="E20" t="n">
-        <v>670.0200682040447</v>
+        <v>321.1222752025744</v>
       </c>
       <c r="F20" t="n">
-        <v>341.3058144737838</v>
+        <v>321.1222752025744</v>
       </c>
       <c r="G20" t="n">
-        <v>26.67505396416184</v>
+        <v>227.0239858312869</v>
       </c>
       <c r="H20" t="n">
         <v>26.67505396416184</v>
@@ -5752,19 +5752,19 @@
         <v>26.67505396416184</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2671461883815</v>
+        <v>102.2671461883812</v>
       </c>
       <c r="K20" t="n">
-        <v>236.1091970936759</v>
+        <v>236.1091970936756</v>
       </c>
       <c r="L20" t="n">
-        <v>417.0973099178785</v>
+        <v>417.0973099178782</v>
       </c>
       <c r="M20" t="n">
-        <v>631.307580275587</v>
+        <v>631.3075802755868</v>
       </c>
       <c r="N20" t="n">
-        <v>850.8525891510534</v>
+        <v>850.8525891510532</v>
       </c>
       <c r="O20" t="n">
         <v>1052.761934663442</v>
@@ -5779,25 +5779,25 @@
         <v>1333.752698208092</v>
       </c>
       <c r="S20" t="n">
-        <v>1333.752698208092</v>
+        <v>1331.3806426703</v>
       </c>
       <c r="T20" t="n">
-        <v>1211.660298990744</v>
+        <v>1209.288243452952</v>
       </c>
       <c r="U20" t="n">
-        <v>1211.660298990744</v>
+        <v>1209.288243452952</v>
       </c>
       <c r="V20" t="n">
-        <v>1211.660298990744</v>
+        <v>951.7668471054847</v>
       </c>
       <c r="W20" t="n">
-        <v>1211.660298990744</v>
+        <v>951.7668471054847</v>
       </c>
       <c r="X20" t="n">
-        <v>1211.660298990744</v>
+        <v>951.7668471054847</v>
       </c>
       <c r="Y20" t="n">
-        <v>1211.660298990744</v>
+        <v>643.1463323696262</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>151.4761854741312</v>
+        <v>520.7408187383371</v>
       </c>
       <c r="C21" t="n">
-        <v>109.7972725391284</v>
+        <v>386.7457474872829</v>
       </c>
       <c r="D21" t="n">
-        <v>85.21627307457234</v>
+        <v>269.8485897066753</v>
       </c>
       <c r="E21" t="n">
-        <v>57.03961538295182</v>
+        <v>149.3557736990033</v>
       </c>
       <c r="F21" t="n">
         <v>40.39589388150788</v>
@@ -5831,25 +5831,25 @@
         <v>38.50189322000942</v>
       </c>
       <c r="J21" t="n">
-        <v>115.4587282475314</v>
+        <v>75.90279747349757</v>
       </c>
       <c r="K21" t="n">
-        <v>211.0355347587199</v>
+        <v>171.4796039846861</v>
       </c>
       <c r="L21" t="n">
-        <v>358.310975191364</v>
+        <v>318.7550444173302</v>
       </c>
       <c r="M21" t="n">
-        <v>538.0139992522754</v>
+        <v>498.4580684782416</v>
       </c>
       <c r="N21" t="n">
-        <v>728.30872882792</v>
+        <v>688.7527980538862</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.412521634423</v>
+        <v>853.8362814670577</v>
       </c>
       <c r="P21" t="n">
-        <v>1183.076679261951</v>
+        <v>978.5004390945858</v>
       </c>
       <c r="Q21" t="n">
         <v>1246.194092655376</v>
@@ -5861,22 +5861,22 @@
         <v>1243.466371240546</v>
       </c>
       <c r="T21" t="n">
-        <v>1159.423802525187</v>
+        <v>1087.966227522424</v>
       </c>
       <c r="U21" t="n">
-        <v>962.1356965615811</v>
+        <v>962.135696561581</v>
       </c>
       <c r="V21" t="n">
-        <v>748.4241695546149</v>
+        <v>840.7403278706663</v>
       </c>
       <c r="W21" t="n">
-        <v>535.1910012909436</v>
+        <v>719.8233179230465</v>
       </c>
       <c r="X21" t="n">
-        <v>358.8650194298364</v>
+        <v>635.8134943779908</v>
       </c>
       <c r="Y21" t="n">
-        <v>199.4630597936664</v>
+        <v>568.7276930578722</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>387.6755524552353</v>
+        <v>177.1918018150863</v>
       </c>
       <c r="C22" t="n">
-        <v>308.8983383330033</v>
+        <v>98.41458769285433</v>
       </c>
       <c r="D22" t="n">
-        <v>241.7198519719648</v>
+        <v>31.23610133181583</v>
       </c>
       <c r="E22" t="n">
-        <v>173.1251951563358</v>
+        <v>26.67505396416184</v>
       </c>
       <c r="F22" t="n">
-        <v>100.8102275829785</v>
+        <v>26.67505396416184</v>
       </c>
       <c r="G22" t="n">
         <v>26.67505396416184</v>
@@ -5910,22 +5910,22 @@
         <v>26.67505396416184</v>
       </c>
       <c r="J22" t="n">
-        <v>31.12550063167543</v>
+        <v>96.12686426301181</v>
       </c>
       <c r="K22" t="n">
-        <v>70.38633918130357</v>
+        <v>236.7589137731208</v>
       </c>
       <c r="L22" t="n">
-        <v>301.2561657712467</v>
+        <v>299.1111181524234</v>
       </c>
       <c r="M22" t="n">
-        <v>368.3174274858079</v>
+        <v>629.2149109589261</v>
       </c>
       <c r="N22" t="n">
-        <v>698.4212202923106</v>
+        <v>959.3187037654288</v>
       </c>
       <c r="O22" t="n">
-        <v>1028.525013098813</v>
+        <v>1289.422496571932</v>
       </c>
       <c r="P22" t="n">
         <v>1328.919837034806</v>
@@ -5949,13 +5949,13 @@
         <v>737.7761001876023</v>
       </c>
       <c r="W22" t="n">
-        <v>615.4786408284122</v>
+        <v>551.0225940125282</v>
       </c>
       <c r="X22" t="n">
-        <v>615.4786408284122</v>
+        <v>404.9948901882631</v>
       </c>
       <c r="Y22" t="n">
-        <v>483.0591005332283</v>
+        <v>272.5753498930792</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1425.318492281516</v>
+        <v>890.6806543482239</v>
       </c>
       <c r="C23" t="n">
-        <v>1107.510059910838</v>
+        <v>890.6806543482239</v>
       </c>
       <c r="D23" t="n">
-        <v>795.3622883199498</v>
+        <v>890.6806543482239</v>
       </c>
       <c r="E23" t="n">
-        <v>473.338231152898</v>
+        <v>884.3872992305827</v>
       </c>
       <c r="F23" t="n">
-        <v>144.623977422637</v>
+        <v>555.6730455003217</v>
       </c>
       <c r="G23" t="n">
-        <v>40.69335312357469</v>
+        <v>241.0422849906998</v>
       </c>
       <c r="H23" t="n">
         <v>40.69335312357469</v>
@@ -5989,25 +5989,25 @@
         <v>40.69335312357469</v>
       </c>
       <c r="J23" t="n">
-        <v>116.2854453477941</v>
+        <v>443.0612722355232</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1274962530885</v>
+        <v>576.9033231408176</v>
       </c>
       <c r="L23" t="n">
-        <v>701.6466262658516</v>
+        <v>757.8914359650203</v>
       </c>
       <c r="M23" t="n">
-        <v>1205.226871170088</v>
+        <v>972.1017063227289</v>
       </c>
       <c r="N23" t="n">
-        <v>1424.771880045555</v>
+        <v>1191.646715198195</v>
       </c>
       <c r="O23" t="n">
-        <v>1626.681225557943</v>
+        <v>1393.556060710584</v>
       </c>
       <c r="P23" t="n">
-        <v>1785.033275267086</v>
+        <v>1551.908110419727</v>
       </c>
       <c r="Q23" t="n">
         <v>1884.439107494078</v>
@@ -6019,22 +6019,22 @@
         <v>2034.667656178734</v>
       </c>
       <c r="T23" t="n">
-        <v>2034.667656178734</v>
+        <v>1912.575256961387</v>
       </c>
       <c r="U23" t="n">
-        <v>2034.667656178734</v>
+        <v>1747.973432759468</v>
       </c>
       <c r="V23" t="n">
-        <v>2034.667656178734</v>
+        <v>1490.452036412</v>
       </c>
       <c r="W23" t="n">
-        <v>1743.223513629954</v>
+        <v>1199.00789386322</v>
       </c>
       <c r="X23" t="n">
-        <v>1743.223513629954</v>
+        <v>890.6806543482239</v>
       </c>
       <c r="Y23" t="n">
-        <v>1743.223513629954</v>
+        <v>890.6806543482239</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>208.2724852691297</v>
       </c>
       <c r="G24" t="n">
-        <v>102.2354870357321</v>
+        <v>102.2354870357322</v>
       </c>
       <c r="H24" t="n">
         <v>40.69335312357469</v>
@@ -6071,22 +6071,22 @@
         <v>333.5895006075437</v>
       </c>
       <c r="K24" t="n">
-        <v>429.1663071187322</v>
+        <v>758.5592506716359</v>
       </c>
       <c r="L24" t="n">
-        <v>576.4417475513764</v>
+        <v>905.8346911042801</v>
       </c>
       <c r="M24" t="n">
-        <v>756.1447716122877</v>
+        <v>1085.537715165191</v>
       </c>
       <c r="N24" t="n">
-        <v>946.4395011879324</v>
+        <v>1275.832444740836</v>
       </c>
       <c r="O24" t="n">
-        <v>1111.522984601104</v>
+        <v>1440.915928154008</v>
       </c>
       <c r="P24" t="n">
-        <v>1615.103229505341</v>
+        <v>1565.580085781536</v>
       </c>
       <c r="Q24" t="n">
         <v>2034.667656178734</v>
@@ -6098,7 +6098,7 @@
         <v>1944.381329211188</v>
       </c>
       <c r="T24" t="n">
-        <v>1788.881185493066</v>
+        <v>1788.881185493067</v>
       </c>
       <c r="U24" t="n">
         <v>1591.59307952946</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>878.1067597857285</v>
+        <v>821.1454195890053</v>
       </c>
       <c r="C25" t="n">
-        <v>799.3295456634964</v>
+        <v>650.0520471507218</v>
       </c>
       <c r="D25" t="n">
-        <v>639.8349009864064</v>
+        <v>490.5574024736319</v>
       </c>
       <c r="E25" t="n">
-        <v>478.9240858547259</v>
+        <v>329.6465873419514</v>
       </c>
       <c r="F25" t="n">
-        <v>314.2929599653172</v>
+        <v>165.0154614525426</v>
       </c>
       <c r="G25" t="n">
-        <v>147.841628030449</v>
+        <v>90.88028783372596</v>
       </c>
       <c r="H25" t="n">
         <v>40.69335312357469</v>
@@ -6150,22 +6150,22 @@
         <v>110.1451634224247</v>
       </c>
       <c r="K25" t="n">
-        <v>355.686195557767</v>
+        <v>304.7648588416403</v>
       </c>
       <c r="L25" t="n">
-        <v>732.0175111720926</v>
+        <v>681.096174455966</v>
       </c>
       <c r="M25" t="n">
-        <v>1144.045122400939</v>
+        <v>1093.123785684813</v>
       </c>
       <c r="N25" t="n">
-        <v>1544.728416640713</v>
+        <v>1493.807079924586</v>
       </c>
       <c r="O25" t="n">
-        <v>1914.984831052863</v>
+        <v>1864.063494336737</v>
       </c>
       <c r="P25" t="n">
-        <v>1954.482171515738</v>
+        <v>1903.560834799611</v>
       </c>
       <c r="Q25" t="n">
         <v>2034.667656178734</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1660.524133086913</v>
+        <v>1381.702432285822</v>
       </c>
       <c r="C26" t="n">
-        <v>1660.524133086913</v>
+        <v>1000.773241704361</v>
       </c>
       <c r="D26" t="n">
-        <v>1285.255603285243</v>
+        <v>1000.773241704361</v>
       </c>
       <c r="E26" t="n">
-        <v>900.1107879074091</v>
+        <v>821.3152738530757</v>
       </c>
       <c r="F26" t="n">
-        <v>692.9499519899398</v>
+        <v>429.4802619120326</v>
       </c>
       <c r="G26" t="n">
-        <v>315.1984332695358</v>
+        <v>51.72874319162858</v>
       </c>
       <c r="H26" t="n">
         <v>51.72874319162858</v>
@@ -6229,25 +6229,25 @@
         <v>454.0966623035771</v>
       </c>
       <c r="K26" t="n">
-        <v>587.9387132088715</v>
+        <v>1094.239859299981</v>
       </c>
       <c r="L26" t="n">
-        <v>768.9268260330741</v>
+        <v>1275.227972124183</v>
       </c>
       <c r="M26" t="n">
-        <v>1346.701901422331</v>
+        <v>1883.992041648925</v>
       </c>
       <c r="N26" t="n">
-        <v>1566.246910297797</v>
+        <v>2103.537050524391</v>
       </c>
       <c r="O26" t="n">
-        <v>1768.156255810186</v>
+        <v>2305.44639603678</v>
       </c>
       <c r="P26" t="n">
-        <v>1926.508305519329</v>
+        <v>2463.798445745922</v>
       </c>
       <c r="Q26" t="n">
-        <v>2436.208610896773</v>
+        <v>2563.204277972914</v>
       </c>
       <c r="R26" t="n">
         <v>2586.437159581429</v>
@@ -6259,19 +6259,19 @@
         <v>2335.731188404725</v>
       </c>
       <c r="U26" t="n">
-        <v>2335.731188404725</v>
+        <v>2108.008605992025</v>
       </c>
       <c r="V26" t="n">
-        <v>2015.089033846475</v>
+        <v>2108.008605992025</v>
       </c>
       <c r="W26" t="n">
-        <v>1660.524133086913</v>
+        <v>1753.443705232462</v>
       </c>
       <c r="X26" t="n">
-        <v>1660.524133086913</v>
+        <v>1753.443705232462</v>
       </c>
       <c r="Y26" t="n">
-        <v>1660.524133086913</v>
+        <v>1381.702432285822</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>51.72874319162858</v>
       </c>
       <c r="J27" t="n">
-        <v>332.79805141975</v>
+        <v>162.9440530064331</v>
       </c>
       <c r="K27" t="n">
-        <v>939.4486391530064</v>
+        <v>769.5946407396896</v>
       </c>
       <c r="L27" t="n">
-        <v>1086.724079585651</v>
+        <v>916.8700811723337</v>
       </c>
       <c r="M27" t="n">
-        <v>1266.427103646562</v>
+        <v>1096.573105233245</v>
       </c>
       <c r="N27" t="n">
-        <v>1456.721833222207</v>
+        <v>1286.86783480889</v>
       </c>
       <c r="O27" t="n">
-        <v>1621.805316635378</v>
+        <v>1451.951318222061</v>
       </c>
       <c r="P27" t="n">
-        <v>1895.027027300647</v>
+        <v>1576.615475849589</v>
       </c>
       <c r="Q27" t="n">
-        <v>1958.144440694072</v>
+        <v>2045.703046246788</v>
       </c>
       <c r="R27" t="n">
         <v>2045.703046246788</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>904.7614838683286</v>
+        <v>904.7614838683285</v>
       </c>
       <c r="C28" t="n">
-        <v>762.8635115353144</v>
+        <v>762.8635115353143</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5642669634938</v>
+        <v>632.5642669634937</v>
       </c>
       <c r="E28" t="n">
-        <v>500.8488519370827</v>
+        <v>500.8488519370825</v>
       </c>
       <c r="F28" t="n">
-        <v>365.4131261529433</v>
+        <v>365.4131261529431</v>
       </c>
       <c r="G28" t="n">
-        <v>228.1571943233441</v>
+        <v>228.1571943233442</v>
       </c>
       <c r="H28" t="n">
         <v>114.8495014024107</v>
@@ -6384,19 +6384,19 @@
         <v>51.72874319162858</v>
       </c>
       <c r="J28" t="n">
-        <v>149.7949651336535</v>
+        <v>149.794965133653</v>
       </c>
       <c r="K28" t="n">
-        <v>423.9504089121702</v>
+        <v>423.9504089121698</v>
       </c>
       <c r="L28" t="n">
-        <v>828.8961361696702</v>
+        <v>828.8961361696699</v>
       </c>
       <c r="M28" t="n">
-        <v>1269.538159041691</v>
+        <v>1269.538159041692</v>
       </c>
       <c r="N28" t="n">
-        <v>1698.835864924639</v>
+        <v>1698.83586492464</v>
       </c>
       <c r="O28" t="n">
         <v>2097.706690979965</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1469.929779308817</v>
+        <v>1570.822797672997</v>
       </c>
       <c r="C29" t="n">
-        <v>1469.929779308817</v>
+        <v>1189.893607091537</v>
       </c>
       <c r="D29" t="n">
-        <v>1469.929779308817</v>
+        <v>814.6250772898667</v>
       </c>
       <c r="E29" t="n">
-        <v>1084.784963930983</v>
+        <v>429.4802619120327</v>
       </c>
       <c r="F29" t="n">
-        <v>692.9499519899398</v>
+        <v>429.4802619120327</v>
       </c>
       <c r="G29" t="n">
-        <v>315.1984332695358</v>
+        <v>51.72874319162858</v>
       </c>
       <c r="H29" t="n">
         <v>51.72874319162858</v>
@@ -6466,22 +6466,22 @@
         <v>127.3208354158479</v>
       </c>
       <c r="K29" t="n">
-        <v>261.1628863211423</v>
+        <v>492.3484340682185</v>
       </c>
       <c r="L29" t="n">
-        <v>901.306083317546</v>
+        <v>1132.491631064622</v>
       </c>
       <c r="M29" t="n">
-        <v>1115.516353675255</v>
+        <v>1346.701901422331</v>
       </c>
       <c r="N29" t="n">
-        <v>1335.061362550721</v>
+        <v>1566.246910297797</v>
       </c>
       <c r="O29" t="n">
-        <v>1536.97070806311</v>
+        <v>1768.156255810186</v>
       </c>
       <c r="P29" t="n">
-        <v>2177.113905059513</v>
+        <v>1926.508305519329</v>
       </c>
       <c r="Q29" t="n">
         <v>2436.208610896773</v>
@@ -6490,25 +6490,25 @@
         <v>2586.437159581429</v>
       </c>
       <c r="S29" t="n">
-        <v>2586.437159581429</v>
+        <v>2520.944345832855</v>
       </c>
       <c r="T29" t="n">
-        <v>2586.437159581429</v>
+        <v>2335.731188404725</v>
       </c>
       <c r="U29" t="n">
-        <v>2586.437159581429</v>
+        <v>2335.731188404725</v>
       </c>
       <c r="V29" t="n">
-        <v>2567.683950740798</v>
+        <v>2335.731188404725</v>
       </c>
       <c r="W29" t="n">
-        <v>2213.119049981236</v>
+        <v>2335.731188404725</v>
       </c>
       <c r="X29" t="n">
-        <v>1841.671052255458</v>
+        <v>1964.283190678947</v>
       </c>
       <c r="Y29" t="n">
-        <v>1469.929779308817</v>
+        <v>1592.541917732307</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>51.72874319162858</v>
       </c>
       <c r="I30" t="n">
-        <v>51.72874319162858</v>
+        <v>63.55558244747616</v>
       </c>
       <c r="J30" t="n">
-        <v>89.12964744511675</v>
+        <v>344.6248906755976</v>
       </c>
       <c r="K30" t="n">
-        <v>184.7064539563052</v>
+        <v>682.0360351869733</v>
       </c>
       <c r="L30" t="n">
-        <v>331.9818943889494</v>
+        <v>829.3114756196175</v>
       </c>
       <c r="M30" t="n">
-        <v>511.6849184498608</v>
+        <v>1009.014499680529</v>
       </c>
       <c r="N30" t="n">
-        <v>701.9796480255054</v>
+        <v>1199.309229256173</v>
       </c>
       <c r="O30" t="n">
-        <v>936.4722788531856</v>
+        <v>1364.392712669345</v>
       </c>
       <c r="P30" t="n">
-        <v>1576.615475849589</v>
+        <v>1489.056870296873</v>
       </c>
       <c r="Q30" t="n">
-        <v>2045.703046246788</v>
+        <v>1958.144440694072</v>
       </c>
       <c r="R30" t="n">
         <v>2045.703046246788</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>904.7614838683284</v>
+        <v>904.7614838683287</v>
       </c>
       <c r="C31" t="n">
-        <v>762.8635115353142</v>
+        <v>762.8635115353145</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5642669634935</v>
+        <v>632.5642669634938</v>
       </c>
       <c r="E31" t="n">
-        <v>500.8488519370824</v>
+        <v>500.8488519370825</v>
       </c>
       <c r="F31" t="n">
-        <v>365.4131261529429</v>
+        <v>365.4131261529431</v>
       </c>
       <c r="G31" t="n">
-        <v>228.1571943233441</v>
+        <v>228.1571943233442</v>
       </c>
       <c r="H31" t="n">
-        <v>114.8495014024107</v>
+        <v>114.8495014024108</v>
       </c>
       <c r="I31" t="n">
         <v>51.72874319162858</v>
@@ -6630,22 +6630,22 @@
         <v>828.8961361696698</v>
       </c>
       <c r="M31" t="n">
-        <v>1269.538159041691</v>
+        <v>1269.538159041692</v>
       </c>
       <c r="N31" t="n">
-        <v>1698.835864924639</v>
+        <v>1698.83586492464</v>
       </c>
       <c r="O31" t="n">
-        <v>2097.706690979964</v>
+        <v>2097.706690979965</v>
       </c>
       <c r="P31" t="n">
-        <v>2426.715926559131</v>
+        <v>2426.715926559132</v>
       </c>
       <c r="Q31" t="n">
         <v>2586.437159581429</v>
       </c>
       <c r="R31" t="n">
-        <v>2566.288445947591</v>
+        <v>2566.288445947592</v>
       </c>
       <c r="S31" t="n">
         <v>2423.017499483598</v>
@@ -6660,13 +6660,13 @@
         <v>1717.828815083973</v>
       </c>
       <c r="W31" t="n">
-        <v>1467.954550698116</v>
+        <v>1467.954550698117</v>
       </c>
       <c r="X31" t="n">
-        <v>1258.806088663069</v>
+        <v>1258.80608866307</v>
       </c>
       <c r="Y31" t="n">
-        <v>1063.265790157103</v>
+        <v>1063.265790157104</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1052.569334341968</v>
+        <v>701.0988769061331</v>
       </c>
       <c r="C32" t="n">
-        <v>720.7041908184519</v>
+        <v>594.8218578740498</v>
       </c>
       <c r="D32" t="n">
-        <v>394.4997080747268</v>
+        <v>594.8218578740498</v>
       </c>
       <c r="E32" t="n">
-        <v>394.4997080747268</v>
+        <v>594.8218578740498</v>
       </c>
       <c r="F32" t="n">
-        <v>51.72874319162858</v>
+        <v>594.8218578740498</v>
       </c>
       <c r="G32" t="n">
-        <v>51.72874319162858</v>
+        <v>266.1343862115908</v>
       </c>
       <c r="H32" t="n">
         <v>51.72874319162858</v>
@@ -6700,28 +6700,28 @@
         <v>51.72874319162858</v>
       </c>
       <c r="J32" t="n">
-        <v>127.3208354158479</v>
+        <v>454.0966623035771</v>
       </c>
       <c r="K32" t="n">
-        <v>261.1628863211423</v>
+        <v>1094.239859299981</v>
       </c>
       <c r="L32" t="n">
-        <v>442.1509991453449</v>
+        <v>1669.781771291216</v>
       </c>
       <c r="M32" t="n">
-        <v>1082.294196141749</v>
+        <v>1883.992041648925</v>
       </c>
       <c r="N32" t="n">
-        <v>1301.839205017215</v>
+        <v>2103.537050524391</v>
       </c>
       <c r="O32" t="n">
-        <v>1503.748550529604</v>
+        <v>2305.44639603678</v>
       </c>
       <c r="P32" t="n">
-        <v>1926.508305519329</v>
+        <v>2463.798445745922</v>
       </c>
       <c r="Q32" t="n">
-        <v>2436.208610896773</v>
+        <v>2563.204277972914</v>
       </c>
       <c r="R32" t="n">
         <v>2586.437159581429</v>
@@ -6730,22 +6730,22 @@
         <v>2570.0083928908</v>
       </c>
       <c r="T32" t="n">
-        <v>2462.652514067755</v>
+        <v>2433.859282520616</v>
       </c>
       <c r="U32" t="n">
-        <v>2283.993978712998</v>
+        <v>2255.200747165859</v>
       </c>
       <c r="V32" t="n">
-        <v>2012.415871212693</v>
+        <v>1983.622639665554</v>
       </c>
       <c r="W32" t="n">
-        <v>1706.915017511076</v>
+        <v>1678.121785963937</v>
       </c>
       <c r="X32" t="n">
-        <v>1384.531066843243</v>
+        <v>1355.737835296104</v>
       </c>
       <c r="Y32" t="n">
-        <v>1384.531066843243</v>
+        <v>1033.060609407408</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>51.72874319162858</v>
       </c>
       <c r="I33" t="n">
-        <v>51.72874319162858</v>
+        <v>63.55558244747616</v>
       </c>
       <c r="J33" t="n">
-        <v>89.12964744511675</v>
+        <v>344.6248906755976</v>
       </c>
       <c r="K33" t="n">
-        <v>184.7064539563052</v>
+        <v>682.0360351869733</v>
       </c>
       <c r="L33" t="n">
-        <v>331.9818943889494</v>
+        <v>829.3114756196175</v>
       </c>
       <c r="M33" t="n">
-        <v>511.6849184498608</v>
+        <v>1009.014499680529</v>
       </c>
       <c r="N33" t="n">
-        <v>811.8081212256575</v>
+        <v>1199.309229256173</v>
       </c>
       <c r="O33" t="n">
-        <v>1451.951318222061</v>
+        <v>1364.392712669345</v>
       </c>
       <c r="P33" t="n">
-        <v>1576.615475849589</v>
+        <v>1489.056870296873</v>
       </c>
       <c r="Q33" t="n">
-        <v>2045.703046246788</v>
+        <v>1958.144440694072</v>
       </c>
       <c r="R33" t="n">
         <v>2045.703046246788</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>853.7289393306871</v>
+        <v>639.5726016259279</v>
       </c>
       <c r="C34" t="n">
-        <v>760.8950140556179</v>
+        <v>468.4792291876444</v>
       </c>
       <c r="D34" t="n">
-        <v>679.6598165417422</v>
+        <v>387.2440316737687</v>
       </c>
       <c r="E34" t="n">
-        <v>539.3710051949455</v>
+        <v>304.5926637053025</v>
       </c>
       <c r="F34" t="n">
-        <v>452.999326468751</v>
+        <v>218.220984979108</v>
       </c>
       <c r="G34" t="n">
-        <v>286.5479945338828</v>
+        <v>130.0291002074542</v>
       </c>
       <c r="H34" t="n">
-        <v>144.0449015076801</v>
+        <v>65.78545434446575</v>
       </c>
       <c r="I34" t="n">
         <v>51.72874319162858</v>
@@ -6882,28 +6882,28 @@
         <v>2357.521866436033</v>
       </c>
       <c r="R34" t="n">
-        <v>2357.521866436033</v>
+        <v>2308.177752696926</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.314967029985</v>
+        <v>2213.970853290878</v>
       </c>
       <c r="T34" t="n">
-        <v>2105.439836948143</v>
+        <v>2056.095723209036</v>
       </c>
       <c r="U34" t="n">
-        <v>1822.685274538244</v>
+        <v>1843.307278323128</v>
       </c>
       <c r="V34" t="n">
-        <v>1548.799529477766</v>
+        <v>1569.42153326265</v>
       </c>
       <c r="W34" t="n">
-        <v>1347.989312149855</v>
+        <v>1290.351868771524</v>
       </c>
       <c r="X34" t="n">
-        <v>1187.904897172752</v>
+        <v>1052.008006631208</v>
       </c>
       <c r="Y34" t="n">
-        <v>1041.428645724731</v>
+        <v>827.2723080199722</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>577.6349811456978</v>
+        <v>569.7681686465831</v>
       </c>
       <c r="C35" t="n">
-        <v>569.7681686465833</v>
+        <v>569.7681686465831</v>
       </c>
       <c r="D35" t="n">
-        <v>569.7681686465833</v>
+        <v>569.7681686465831</v>
       </c>
       <c r="E35" t="n">
-        <v>569.7681686465833</v>
+        <v>569.7681686465831</v>
       </c>
       <c r="F35" t="n">
-        <v>569.7681686465833</v>
+        <v>569.7681686465831</v>
       </c>
       <c r="G35" t="n">
         <v>241.0806969841241</v>
@@ -6970,19 +6970,19 @@
         <v>1181.174821147278</v>
       </c>
       <c r="U35" t="n">
-        <v>1181.174821147278</v>
+        <v>1002.516285792522</v>
       </c>
       <c r="V35" t="n">
-        <v>909.5967136469729</v>
+        <v>1002.516285792522</v>
       </c>
       <c r="W35" t="n">
-        <v>909.5967136469729</v>
+        <v>892.4453945352788</v>
       </c>
       <c r="X35" t="n">
-        <v>909.5967136469729</v>
+        <v>892.4453945352788</v>
       </c>
       <c r="Y35" t="n">
-        <v>909.5967136469729</v>
+        <v>569.7681686465831</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>518.0802166401177</v>
+        <v>300.7402408081743</v>
       </c>
       <c r="C36" t="n">
-        <v>462.3445925522776</v>
+        <v>244.2835643136914</v>
       </c>
       <c r="D36" t="n">
-        <v>423.7068819348843</v>
+        <v>205.6458536962982</v>
       </c>
       <c r="E36" t="n">
-        <v>303.2140659272123</v>
+        <v>163.4124848518405</v>
       </c>
       <c r="F36" t="n">
-        <v>194.2541861097169</v>
+        <v>132.7120521975594</v>
       </c>
       <c r="G36" t="n">
-        <v>88.21718787631934</v>
+        <v>26.67505396416184</v>
       </c>
       <c r="H36" t="n">
         <v>26.67505396416184</v>
       </c>
       <c r="I36" t="n">
-        <v>26.67505396416184</v>
+        <v>38.50189322000942</v>
       </c>
       <c r="J36" t="n">
-        <v>64.07595821765</v>
+        <v>75.90279747349757</v>
       </c>
       <c r="K36" t="n">
-        <v>159.6527647288385</v>
+        <v>376.0558441520511</v>
       </c>
       <c r="L36" t="n">
-        <v>306.9282051614827</v>
+        <v>523.3312845846953</v>
       </c>
       <c r="M36" t="n">
-        <v>486.631229222394</v>
+        <v>703.0343086456066</v>
       </c>
       <c r="N36" t="n">
-        <v>676.9259587980387</v>
+        <v>893.3290382212513</v>
       </c>
       <c r="O36" t="n">
-        <v>842.0094422112102</v>
+        <v>1058.412521634423</v>
       </c>
       <c r="P36" t="n">
-        <v>1003.648905401589</v>
+        <v>1183.076679261951</v>
       </c>
       <c r="Q36" t="n">
-        <v>1333.752698208092</v>
+        <v>1246.194092655376</v>
       </c>
       <c r="R36" t="n">
         <v>1333.752698208092</v>
@@ -7052,16 +7052,16 @@
         <v>1125.456463048461</v>
       </c>
       <c r="V36" t="n">
-        <v>911.7449360414948</v>
+        <v>911.7449360414951</v>
       </c>
       <c r="W36" t="n">
-        <v>776.7712149410379</v>
+        <v>698.5117677778238</v>
       </c>
       <c r="X36" t="n">
-        <v>661.2663145854457</v>
+        <v>600.445233079931</v>
       </c>
       <c r="Y36" t="n">
-        <v>580.12380211249</v>
+        <v>441.043273443761</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>448.0675804635931</v>
+        <v>362.1903424463019</v>
       </c>
       <c r="C37" t="n">
-        <v>355.2336551885239</v>
+        <v>362.1903424463019</v>
       </c>
       <c r="D37" t="n">
-        <v>273.9984576746482</v>
+        <v>362.1903424463019</v>
       </c>
       <c r="E37" t="n">
-        <v>191.347089706182</v>
+        <v>279.5389744778357</v>
       </c>
       <c r="F37" t="n">
-        <v>104.9754109799875</v>
+        <v>193.1672957516413</v>
       </c>
       <c r="G37" t="n">
-        <v>104.9754109799875</v>
+        <v>104.9754109799874</v>
       </c>
       <c r="H37" t="n">
-        <v>40.73176511699903</v>
+        <v>40.731765116999</v>
       </c>
       <c r="I37" t="n">
         <v>26.67505396416184</v>
       </c>
       <c r="J37" t="n">
-        <v>31.12550063167543</v>
+        <v>96.12686426301181</v>
       </c>
       <c r="K37" t="n">
-        <v>276.6665327670177</v>
+        <v>341.6678963983541</v>
       </c>
       <c r="L37" t="n">
-        <v>606.7703255735205</v>
+        <v>671.7716892048568</v>
       </c>
       <c r="M37" t="n">
-        <v>936.8741183800232</v>
+        <v>777.8630885661817</v>
       </c>
       <c r="N37" t="n">
-        <v>1005.523111172211</v>
+        <v>1107.966881372684</v>
       </c>
       <c r="O37" t="n">
-        <v>1289.422496571932</v>
+        <v>1163.148536366095</v>
       </c>
       <c r="P37" t="n">
-        <v>1328.919837034806</v>
+        <v>1202.645876828969</v>
       </c>
       <c r="Q37" t="n">
         <v>1333.752698208092</v>
@@ -7122,25 +7122,25 @@
         <v>1333.752698208092</v>
       </c>
       <c r="S37" t="n">
-        <v>1239.545798802044</v>
+        <v>1333.752698208092</v>
       </c>
       <c r="T37" t="n">
-        <v>1239.545798802044</v>
+        <v>1175.87756812625</v>
       </c>
       <c r="U37" t="n">
-        <v>1151.064762113892</v>
+        <v>1065.1875240966</v>
       </c>
       <c r="V37" t="n">
-        <v>955.4384642166278</v>
+        <v>869.5612261993366</v>
       </c>
       <c r="W37" t="n">
-        <v>754.6282468887165</v>
+        <v>668.7510088714253</v>
       </c>
       <c r="X37" t="n">
-        <v>594.5438319116141</v>
+        <v>508.6665938943229</v>
       </c>
       <c r="Y37" t="n">
-        <v>448.0675804635931</v>
+        <v>362.1903424463019</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1028.249530867745</v>
+        <v>358.5401974876774</v>
       </c>
       <c r="C38" t="n">
-        <v>1028.249530867745</v>
+        <v>26.67505396416184</v>
       </c>
       <c r="D38" t="n">
-        <v>1028.249530867745</v>
+        <v>26.67505396416184</v>
       </c>
       <c r="E38" t="n">
-        <v>692.1687625478563</v>
+        <v>26.67505396416184</v>
       </c>
       <c r="F38" t="n">
-        <v>355.3625256266209</v>
+        <v>26.67505396416184</v>
       </c>
       <c r="G38" t="n">
         <v>26.67505396416184</v>
@@ -7183,10 +7183,10 @@
         <v>417.0973099178782</v>
       </c>
       <c r="M38" t="n">
-        <v>631.3075802755868</v>
+        <v>631.3075802755873</v>
       </c>
       <c r="N38" t="n">
-        <v>850.8525891510532</v>
+        <v>850.8525891510536</v>
       </c>
       <c r="O38" t="n">
         <v>1052.761934663442</v>
@@ -7201,25 +7201,25 @@
         <v>1333.752698208092</v>
       </c>
       <c r="S38" t="n">
-        <v>1333.752698208092</v>
+        <v>1317.323931517463</v>
       </c>
       <c r="T38" t="n">
-        <v>1197.603587837907</v>
+        <v>1317.323931517463</v>
       </c>
       <c r="U38" t="n">
-        <v>1197.603587837907</v>
+        <v>1138.665396162707</v>
       </c>
       <c r="V38" t="n">
-        <v>1197.603587837907</v>
+        <v>867.0872886624019</v>
       </c>
       <c r="W38" t="n">
-        <v>1197.603587837907</v>
+        <v>561.5864349607848</v>
       </c>
       <c r="X38" t="n">
-        <v>1197.603587837907</v>
+        <v>358.5401974876774</v>
       </c>
       <c r="Y38" t="n">
-        <v>1028.249530867745</v>
+        <v>358.5401974876774</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>300.7402408081741</v>
+        <v>221.7597412383171</v>
       </c>
       <c r="C39" t="n">
-        <v>166.7451695571198</v>
+        <v>166.0241171504771</v>
       </c>
       <c r="D39" t="n">
-        <v>128.1074589397265</v>
+        <v>127.3864065330839</v>
       </c>
       <c r="E39" t="n">
-        <v>85.87409009526881</v>
+        <v>85.15303768862616</v>
       </c>
       <c r="F39" t="n">
-        <v>55.17365744098768</v>
+        <v>54.45260503434505</v>
       </c>
       <c r="G39" t="n">
         <v>26.67505396416184</v>
@@ -7250,31 +7250,31 @@
         <v>26.67505396416184</v>
       </c>
       <c r="I39" t="n">
-        <v>26.67505396416184</v>
+        <v>38.50189322000942</v>
       </c>
       <c r="J39" t="n">
-        <v>307.7443621922833</v>
+        <v>75.90279747349757</v>
       </c>
       <c r="K39" t="n">
-        <v>463.6144497047674</v>
+        <v>376.0558441520511</v>
       </c>
       <c r="L39" t="n">
-        <v>610.8898901374115</v>
+        <v>523.3312845846953</v>
       </c>
       <c r="M39" t="n">
-        <v>790.5929141983229</v>
+        <v>703.0343086456066</v>
       </c>
       <c r="N39" t="n">
-        <v>980.8876437739675</v>
+        <v>893.3290382212513</v>
       </c>
       <c r="O39" t="n">
-        <v>1145.971127187139</v>
+        <v>1058.412521634423</v>
       </c>
       <c r="P39" t="n">
-        <v>1270.635284814667</v>
+        <v>1183.076679261951</v>
       </c>
       <c r="Q39" t="n">
-        <v>1333.752698208092</v>
+        <v>1246.194092655376</v>
       </c>
       <c r="R39" t="n">
         <v>1333.752698208092</v>
@@ -7283,22 +7283,22 @@
         <v>1243.466371240546</v>
       </c>
       <c r="T39" t="n">
-        <v>1166.225674685639</v>
+        <v>1087.966227522424</v>
       </c>
       <c r="U39" t="n">
-        <v>1047.197015885247</v>
+        <v>890.6781215588182</v>
       </c>
       <c r="V39" t="n">
-        <v>833.4854888782806</v>
+        <v>676.966594551852</v>
       </c>
       <c r="W39" t="n">
-        <v>698.5117677778237</v>
+        <v>463.7334262881808</v>
       </c>
       <c r="X39" t="n">
-        <v>522.1857859167164</v>
+        <v>364.9458391836451</v>
       </c>
       <c r="Y39" t="n">
-        <v>441.0432734437608</v>
+        <v>283.8033267106894</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>371.2987790175122</v>
+        <v>522.2027540824097</v>
       </c>
       <c r="C40" t="n">
-        <v>278.464853742443</v>
+        <v>429.3688288073405</v>
       </c>
       <c r="D40" t="n">
-        <v>197.2296562285673</v>
+        <v>348.1336312934648</v>
       </c>
       <c r="E40" t="n">
-        <v>114.578288260101</v>
+        <v>265.4822633249986</v>
       </c>
       <c r="F40" t="n">
-        <v>104.9754109799875</v>
+        <v>179.1105845988041</v>
       </c>
       <c r="G40" t="n">
-        <v>104.9754109799875</v>
+        <v>90.91869982715028</v>
       </c>
       <c r="H40" t="n">
-        <v>40.73176511699903</v>
+        <v>26.67505396416184</v>
       </c>
       <c r="I40" t="n">
         <v>26.67505396416184</v>
@@ -7338,16 +7338,16 @@
         <v>70.38633918130357</v>
       </c>
       <c r="L40" t="n">
-        <v>400.4901319878063</v>
+        <v>299.1111181524234</v>
       </c>
       <c r="M40" t="n">
-        <v>629.7722275001227</v>
+        <v>629.2149109589261</v>
       </c>
       <c r="N40" t="n">
-        <v>698.4212202923106</v>
+        <v>959.3187037654288</v>
       </c>
       <c r="O40" t="n">
-        <v>1028.525013098813</v>
+        <v>1289.422496571932</v>
       </c>
       <c r="P40" t="n">
         <v>1328.919837034806</v>
@@ -7359,25 +7359,25 @@
         <v>1333.752698208092</v>
       </c>
       <c r="S40" t="n">
-        <v>1239.545798802044</v>
+        <v>1333.752698208092</v>
       </c>
       <c r="T40" t="n">
-        <v>1081.670668720202</v>
+        <v>1175.87756812625</v>
       </c>
       <c r="U40" t="n">
-        <v>877.1755534735175</v>
+        <v>971.3824528795658</v>
       </c>
       <c r="V40" t="n">
-        <v>681.5492555762537</v>
+        <v>883.0973863874234</v>
       </c>
       <c r="W40" t="n">
-        <v>480.7390382483424</v>
+        <v>682.2871690595121</v>
       </c>
       <c r="X40" t="n">
-        <v>480.7390382483424</v>
+        <v>522.2027540824097</v>
       </c>
       <c r="Y40" t="n">
-        <v>480.7390382483424</v>
+        <v>522.2027540824097</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>951.3222944909581</v>
+        <v>614.1565778711397</v>
       </c>
       <c r="C41" t="n">
-        <v>951.3222944909581</v>
+        <v>614.1565778711397</v>
       </c>
       <c r="D41" t="n">
-        <v>951.3222944909581</v>
+        <v>614.1565778711397</v>
       </c>
       <c r="E41" t="n">
-        <v>614.5160575697228</v>
+        <v>614.1565778711397</v>
       </c>
       <c r="F41" t="n">
-        <v>277.7098206484874</v>
+        <v>607.0823340106288</v>
       </c>
       <c r="G41" t="n">
-        <v>270.2760970893935</v>
+        <v>270.2760970893934</v>
       </c>
       <c r="H41" t="n">
         <v>26.67505396416184</v>
@@ -7441,22 +7441,22 @@
         <v>1288.128531412194</v>
       </c>
       <c r="T41" t="n">
-        <v>1288.128531412194</v>
+        <v>1122.784020936739</v>
       </c>
       <c r="U41" t="n">
-        <v>1288.128531412194</v>
+        <v>914.930085476714</v>
       </c>
       <c r="V41" t="n">
-        <v>1288.128531412194</v>
+        <v>614.1565778711397</v>
       </c>
       <c r="W41" t="n">
-        <v>1288.128531412194</v>
+        <v>614.1565778711397</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.128531412194</v>
+        <v>614.1565778711397</v>
       </c>
       <c r="Y41" t="n">
-        <v>1288.128531412194</v>
+        <v>614.1565778711397</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>380.2148286188764</v>
+        <v>380.2148286188766</v>
       </c>
       <c r="C42" t="n">
-        <v>295.283804425767</v>
+        <v>295.2838044257673</v>
       </c>
       <c r="D42" t="n">
-        <v>227.4506937031044</v>
+        <v>227.4506937031047</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0219247533775</v>
+        <v>156.0219247533777</v>
       </c>
       <c r="F42" t="n">
-        <v>96.126091993827</v>
+        <v>96.12609199382723</v>
       </c>
       <c r="G42" t="n">
-        <v>39.1531408183744</v>
+        <v>39.15314081837468</v>
       </c>
       <c r="H42" t="n">
         <v>26.67505396416184</v>
       </c>
       <c r="I42" t="n">
-        <v>26.67505396416184</v>
+        <v>38.50189322000942</v>
       </c>
       <c r="J42" t="n">
-        <v>64.07595821765</v>
+        <v>75.90279747349757</v>
       </c>
       <c r="K42" t="n">
-        <v>159.6527647288385</v>
+        <v>171.4796039846861</v>
       </c>
       <c r="L42" t="n">
-        <v>306.9282051614827</v>
+        <v>318.7550444173302</v>
       </c>
       <c r="M42" t="n">
-        <v>486.631229222394</v>
+        <v>498.4580684782416</v>
       </c>
       <c r="N42" t="n">
-        <v>676.9259587980387</v>
+        <v>688.7527980538862</v>
       </c>
       <c r="O42" t="n">
-        <v>842.0094422112102</v>
+        <v>853.8362814670577</v>
       </c>
       <c r="P42" t="n">
-        <v>1003.648905401589</v>
+        <v>978.5004390945858</v>
       </c>
       <c r="Q42" t="n">
-        <v>1333.752698208092</v>
+        <v>1246.194092655376</v>
       </c>
       <c r="R42" t="n">
         <v>1333.752698208092</v>
@@ -7529,13 +7529,13 @@
         <v>873.2227827836317</v>
       </c>
       <c r="W42" t="n">
-        <v>709.0536615779054</v>
+        <v>709.0536615779055</v>
       </c>
       <c r="X42" t="n">
-        <v>581.7917267747431</v>
+        <v>581.7917267747432</v>
       </c>
       <c r="Y42" t="n">
-        <v>471.4538141965181</v>
+        <v>471.4538141965182</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.782821447788</v>
+        <v>61.1805291834151</v>
       </c>
       <c r="C43" t="n">
-        <v>280.7534960674494</v>
+        <v>61.1805291834151</v>
       </c>
       <c r="D43" t="n">
-        <v>280.7534960674494</v>
+        <v>61.1805291834151</v>
       </c>
       <c r="E43" t="n">
-        <v>280.7534960674494</v>
+        <v>61.1805291834151</v>
       </c>
       <c r="F43" t="n">
-        <v>280.7534960674494</v>
+        <v>61.1805291834151</v>
       </c>
       <c r="G43" t="n">
-        <v>163.3662111905262</v>
+        <v>26.67505396416184</v>
       </c>
       <c r="H43" t="n">
-        <v>69.92716522226839</v>
+        <v>26.67505396416184</v>
       </c>
       <c r="I43" t="n">
         <v>26.67505396416184</v>
       </c>
       <c r="J43" t="n">
-        <v>96.12686426301181</v>
+        <v>31.12550063167543</v>
       </c>
       <c r="K43" t="n">
-        <v>135.3877028126399</v>
+        <v>70.38633918130357</v>
       </c>
       <c r="L43" t="n">
-        <v>465.4914956191427</v>
+        <v>299.1111181524234</v>
       </c>
       <c r="M43" t="n">
-        <v>532.5527573337039</v>
+        <v>629.2149109589261</v>
       </c>
       <c r="N43" t="n">
-        <v>847.0693978995662</v>
+        <v>959.3187037654288</v>
       </c>
       <c r="O43" t="n">
-        <v>902.2510528929764</v>
+        <v>1289.422496571932</v>
       </c>
       <c r="P43" t="n">
-        <v>1202.645876828969</v>
+        <v>1328.919837034806</v>
       </c>
       <c r="Q43" t="n">
         <v>1333.752698208092</v>
       </c>
       <c r="R43" t="n">
-        <v>1333.47263152693</v>
+        <v>1333.752698208092</v>
       </c>
       <c r="S43" t="n">
-        <v>1210.070332015612</v>
+        <v>1210.350398696774</v>
       </c>
       <c r="T43" t="n">
-        <v>1091.300652235455</v>
+        <v>1023.279868509663</v>
       </c>
       <c r="U43" t="n">
-        <v>857.6101368835018</v>
+        <v>789.5893531577095</v>
       </c>
       <c r="V43" t="n">
-        <v>632.7884388809687</v>
+        <v>564.7676551551765</v>
       </c>
       <c r="W43" t="n">
-        <v>402.782821447788</v>
+        <v>564.7676551551765</v>
       </c>
       <c r="X43" t="n">
-        <v>402.782821447788</v>
+        <v>375.4878400728048</v>
       </c>
       <c r="Y43" t="n">
-        <v>402.782821447788</v>
+        <v>199.8161885195145</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1333.752698208092</v>
+        <v>825.1252551424918</v>
       </c>
       <c r="C44" t="n">
-        <v>1333.752698208092</v>
+        <v>607.0823340106288</v>
       </c>
       <c r="D44" t="n">
-        <v>1280.6948078531</v>
+        <v>607.0823340106288</v>
       </c>
       <c r="E44" t="n">
-        <v>943.8885709318645</v>
+        <v>607.0823340106288</v>
       </c>
       <c r="F44" t="n">
-        <v>607.082334010629</v>
+        <v>607.0823340106288</v>
       </c>
       <c r="G44" t="n">
-        <v>270.2760970893935</v>
+        <v>270.2760970893934</v>
       </c>
       <c r="H44" t="n">
-        <v>26.67505396416184</v>
+        <v>26.67505396416183</v>
       </c>
       <c r="I44" t="n">
-        <v>26.67505396416184</v>
+        <v>26.67505396416183</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2671461883818</v>
+        <v>102.2671461883814</v>
       </c>
       <c r="K44" t="n">
-        <v>236.1091970936762</v>
+        <v>236.1091970936758</v>
       </c>
       <c r="L44" t="n">
-        <v>417.0973099178789</v>
+        <v>417.0973099178784</v>
       </c>
       <c r="M44" t="n">
-        <v>631.3075802755875</v>
+        <v>631.307580275587</v>
       </c>
       <c r="N44" t="n">
-        <v>850.8525891510538</v>
+        <v>850.8525891510534</v>
       </c>
       <c r="O44" t="n">
-        <v>1052.761934663443</v>
+        <v>1052.761934663442</v>
       </c>
       <c r="P44" t="n">
         <v>1211.113984372585</v>
@@ -7681,19 +7681,19 @@
         <v>1333.752698208092</v>
       </c>
       <c r="U44" t="n">
-        <v>1333.752698208092</v>
+        <v>1125.898762748066</v>
       </c>
       <c r="V44" t="n">
-        <v>1333.752698208092</v>
+        <v>825.1252551424918</v>
       </c>
       <c r="W44" t="n">
-        <v>1333.752698208092</v>
+        <v>825.1252551424918</v>
       </c>
       <c r="X44" t="n">
-        <v>1333.752698208092</v>
+        <v>825.1252551424918</v>
       </c>
       <c r="Y44" t="n">
-        <v>1333.752698208092</v>
+        <v>825.1252551424918</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>380.2148286188764</v>
+        <v>380.2148286188762</v>
       </c>
       <c r="C45" t="n">
-        <v>295.2838044257671</v>
+        <v>295.2838044257669</v>
       </c>
       <c r="D45" t="n">
-        <v>227.4506937031044</v>
+        <v>227.4506937031043</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0219247533774</v>
+        <v>156.0219247533773</v>
       </c>
       <c r="F45" t="n">
-        <v>96.12609199382702</v>
+        <v>96.12609199382692</v>
       </c>
       <c r="G45" t="n">
-        <v>39.15314081837441</v>
+        <v>39.15314081837435</v>
       </c>
       <c r="H45" t="n">
-        <v>26.67505396416184</v>
+        <v>26.67505396416183</v>
       </c>
       <c r="I45" t="n">
-        <v>26.67505396416184</v>
+        <v>38.50189322000941</v>
       </c>
       <c r="J45" t="n">
-        <v>64.07595821765</v>
+        <v>319.5712014481309</v>
       </c>
       <c r="K45" t="n">
-        <v>159.6527647288385</v>
+        <v>415.1480079593193</v>
       </c>
       <c r="L45" t="n">
-        <v>306.9282051614827</v>
+        <v>562.4234483919635</v>
       </c>
       <c r="M45" t="n">
-        <v>486.631229222394</v>
+        <v>742.1264724528749</v>
       </c>
       <c r="N45" t="n">
-        <v>676.9259587980387</v>
+        <v>932.4212020285195</v>
       </c>
       <c r="O45" t="n">
-        <v>842.0094422112102</v>
+        <v>1097.504685441691</v>
       </c>
       <c r="P45" t="n">
-        <v>1003.648905401589</v>
+        <v>1222.168843069219</v>
       </c>
       <c r="Q45" t="n">
-        <v>1333.752698208092</v>
+        <v>1285.286256462644</v>
       </c>
       <c r="R45" t="n">
         <v>1333.752698208092</v>
@@ -7763,16 +7763,16 @@
         <v>1037.870262732653</v>
       </c>
       <c r="V45" t="n">
-        <v>873.2227827836318</v>
+        <v>873.2227827836314</v>
       </c>
       <c r="W45" t="n">
-        <v>709.0536615779055</v>
+        <v>709.0536615779051</v>
       </c>
       <c r="X45" t="n">
-        <v>581.7917267747432</v>
+        <v>581.7917267747429</v>
       </c>
       <c r="Y45" t="n">
-        <v>471.4538141965181</v>
+        <v>471.4538141965178</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>383.6320174900763</v>
+        <v>377.9384322951591</v>
       </c>
       <c r="C46" t="n">
-        <v>383.6320174900763</v>
+        <v>255.9091069148206</v>
       </c>
       <c r="D46" t="n">
-        <v>383.6320174900763</v>
+        <v>255.9091069148206</v>
       </c>
       <c r="E46" t="n">
-        <v>271.7852494163407</v>
+        <v>144.062338841085</v>
       </c>
       <c r="F46" t="n">
-        <v>156.2181705848768</v>
+        <v>144.062338841085</v>
       </c>
       <c r="G46" t="n">
-        <v>156.2181705848768</v>
+        <v>26.67505396416183</v>
       </c>
       <c r="H46" t="n">
-        <v>69.92716522226839</v>
+        <v>26.67505396416183</v>
       </c>
       <c r="I46" t="n">
-        <v>26.67505396416184</v>
+        <v>26.67505396416183</v>
       </c>
       <c r="J46" t="n">
-        <v>96.12686426301183</v>
+        <v>96.12686426301181</v>
       </c>
       <c r="K46" t="n">
-        <v>341.6678963983541</v>
+        <v>135.3877028126399</v>
       </c>
       <c r="L46" t="n">
-        <v>447.7592957596791</v>
+        <v>465.4914956191427</v>
       </c>
       <c r="M46" t="n">
-        <v>777.8630885661819</v>
+        <v>629.2149109589259</v>
       </c>
       <c r="N46" t="n">
-        <v>1107.966881372685</v>
+        <v>959.3187037654286</v>
       </c>
       <c r="O46" t="n">
-        <v>1163.148536366095</v>
+        <v>1289.422496571931</v>
       </c>
       <c r="P46" t="n">
-        <v>1202.645876828969</v>
+        <v>1328.919837034806</v>
       </c>
       <c r="Q46" t="n">
         <v>1333.752698208092</v>
       </c>
       <c r="R46" t="n">
-        <v>1333.47263152693</v>
+        <v>1333.752698208092</v>
       </c>
       <c r="S46" t="n">
-        <v>1210.070332015612</v>
+        <v>1333.752698208092</v>
       </c>
       <c r="T46" t="n">
-        <v>1022.999801828501</v>
+        <v>1146.68216802098</v>
       </c>
       <c r="U46" t="n">
-        <v>789.3092864765474</v>
+        <v>1146.68216802098</v>
       </c>
       <c r="V46" t="n">
-        <v>789.3092864765474</v>
+        <v>935.8595241468109</v>
       </c>
       <c r="W46" t="n">
-        <v>559.3036690433667</v>
+        <v>705.8539067136303</v>
       </c>
       <c r="X46" t="n">
-        <v>559.3036690433667</v>
+        <v>516.5740916312586</v>
       </c>
       <c r="Y46" t="n">
-        <v>383.6320174900763</v>
+        <v>516.5740916312586</v>
       </c>
     </row>
   </sheetData>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.81915615540386</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>70.13605927334802</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>236.8959457528426</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>48.95600176307838</v>
       </c>
       <c r="R12" t="n">
-        <v>0.415263559863611</v>
+        <v>0.4152635598635968</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>168.0531056482999</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>265.6995263554965</v>
+        <v>265.6995263554964</v>
       </c>
       <c r="N13" t="n">
-        <v>264.095757590217</v>
+        <v>264.0957575902169</v>
       </c>
       <c r="O13" t="n">
-        <v>182.2194231634259</v>
+        <v>277.6991291041338</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>7.819156155403853</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>37.34879349782926</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>269.6832115283615</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4152635598636039</v>
+        <v>61.31756760157629</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>270.4561499264648</v>
       </c>
       <c r="M16" t="n">
         <v>265.6995263554965</v>
       </c>
       <c r="N16" t="n">
-        <v>168.6160516495089</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>277.6991291041339</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>231.0280105114245</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>77.36769312359044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>141.2212759907657</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>218.5889691143562</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9327,19 +9327,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>270.4561499264648</v>
       </c>
       <c r="M19" t="n">
         <v>265.6995263554965</v>
       </c>
       <c r="N19" t="n">
-        <v>168.6160516495089</v>
+        <v>161.6927133120524</v>
       </c>
       <c r="O19" t="n">
         <v>277.6991291041339</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>39.9554856303372</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>166.6871812053852</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>206.6426668357223</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>102.3951625863442</v>
       </c>
       <c r="L22" t="n">
-        <v>170.2198204147884</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>265.6995263554965</v>
       </c>
       <c r="N22" t="n">
         <v>264.095757590217</v>
@@ -9576,7 +9576,7 @@
         <v>277.6991291041339</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>273.2636537258187</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>292.2929035823516</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>235.4799644922822</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9719,7 +9719,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>332.7201450029331</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>382.7435225017259</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>360.0474881615847</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>0.4152635598636039</v>
@@ -9798,7 +9798,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>156.9281382521086</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>76.11376110071754</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>511.4152990819286</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>367.2371767995435</v>
+        <v>398.5391910778107</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>7.819156155403853</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>74.5600056174913</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>150.0581343815561</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>0.4152635598636039</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>233.5207553000769</v>
       </c>
       <c r="L29" t="n">
         <v>463.7930143153546</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>486.6577245325869</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>161.301892535624</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.819156155403853</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>244.2771090910982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>70.11024991364516</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>520.6858983523996</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4152635598636039</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>511.4152990819286</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>398.5391910778108</v>
       </c>
       <c r="M32" t="n">
-        <v>430.2352794330254</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>267.0784901824064</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.819156155403853</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>244.2771090910982</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,10 +10439,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>110.9378517173253</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>479.8582965487195</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4152635598636039</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.819156155403853</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>206.6426668357223</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>37.34879349782926</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>269.6832115283615</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4152635598636039</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
         <v>208.3638319047618</v>
@@ -10752,19 +10752,19 @@
         <v>270.4561499264648</v>
       </c>
       <c r="M37" t="n">
-        <v>265.6995263554965</v>
+        <v>39.42438146137742</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>264.095757590217</v>
       </c>
       <c r="O37" t="n">
-        <v>231.0280105114244</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.819156155403853</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>60.90230404171271</v>
+        <v>206.6426668357223</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.4152635598636039</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>270.4561499264648</v>
+        <v>168.0531056483002</v>
       </c>
       <c r="M40" t="n">
-        <v>163.8594280785405</v>
+        <v>265.6995263554965</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>264.095757590217</v>
       </c>
       <c r="O40" t="n">
         <v>277.6991291041339</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.819156155403853</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>37.34879349782926</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>269.6832115283615</v>
+        <v>206.6426668357223</v>
       </c>
       <c r="R42" t="n">
-        <v>0.4152635598636039</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>270.4561499264648</v>
+        <v>168.0531056483002</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>265.6995263554965</v>
       </c>
       <c r="N43" t="n">
-        <v>248.3511593673479</v>
+        <v>264.095757590217</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>277.6991291041339</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.819156155403853</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>37.34879349782949</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>269.6832115283616</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4152635598636039</v>
+        <v>49.3712653229422</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>44.18100503234583</v>
+        <v>270.4561499264647</v>
       </c>
       <c r="M46" t="n">
-        <v>265.6995263554966</v>
+        <v>97.63853901537576</v>
       </c>
       <c r="N46" t="n">
-        <v>264.095757590217</v>
+        <v>264.0957575902169</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>277.6991291041339</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>314.7259711349536</v>
       </c>
       <c r="C11" t="n">
-        <v>314.6303480469716</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>309.026293874979</v>
+        <v>11.00174131812713</v>
       </c>
       <c r="E11" t="n">
         <v>318.8038165953812</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>325.4271111929584</v>
       </c>
       <c r="G11" t="n">
         <v>311.4844529045257</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>198.3454425484538</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.348334982414009</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>162.9558059598997</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>59.41718561469472</v>
+        <v>288.5297011232922</v>
       </c>
       <c r="X11" t="n">
         <v>305.243967119846</v>
       </c>
       <c r="Y11" t="n">
-        <v>305.5343095884998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,10 +23430,10 @@
         <v>71.59181789762368</v>
       </c>
       <c r="G13" t="n">
-        <v>55.37681570694185</v>
+        <v>73.39382188262852</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>49.68506536304975</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>63.39327335349552</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.095344892232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,10 +23506,10 @@
         <v>318.8038165953812</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>325.4271111929584</v>
       </c>
       <c r="G14" t="n">
-        <v>311.4844529045257</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.348334982414016</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>110.0053128192014</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>254.9461823839931</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>288.5297011232922</v>
       </c>
       <c r="X14" t="n">
-        <v>305.243967119846</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>110.4285855449083</v>
       </c>
     </row>
     <row r="15">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>66.50670149742811</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>67.90871024747275</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.59181789762368</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.371683491222953</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>49.68506536304975</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>79.34868637067903</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>142.380234739715</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>36.33505738640329</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>314.7259711349536</v>
       </c>
       <c r="C17" t="n">
-        <v>257.6121809933061</v>
+        <v>314.6303480469716</v>
       </c>
       <c r="D17" t="n">
-        <v>309.026293874979</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>318.8038165953812</v>
+        <v>253.0543144703153</v>
       </c>
       <c r="F17" t="n">
         <v>325.4271111929584</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>198.3454425484538</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>2.348334982414016</v>
       </c>
       <c r="T17" t="n">
-        <v>120.8714752251741</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>162.9558059598997</v>
@@ -23794,13 +23794,13 @@
         <v>254.9461823839931</v>
       </c>
       <c r="W17" t="n">
-        <v>288.5297011232922</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>305.243967119846</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>305.5343095884998</v>
       </c>
     </row>
     <row r="18">
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.3932733534953</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>71.59181789762368</v>
       </c>
       <c r="G19" t="n">
-        <v>73.39382188262852</v>
+        <v>44.09192585945858</v>
       </c>
       <c r="H19" t="n">
-        <v>49.68506536304975</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>142.380234739715</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>314.6303480469716</v>
       </c>
       <c r="D20" t="n">
-        <v>91.6062819915276</v>
+        <v>309.026293874979</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>325.4271111929584</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>218.3271464269511</v>
       </c>
       <c r="H20" t="n">
-        <v>198.3454425484538</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.348334982414016</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>162.9558059598997</v>
       </c>
       <c r="V20" t="n">
-        <v>254.9461823839931</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>288.5297011232922</v>
@@ -24037,7 +24037,7 @@
         <v>305.243967119846</v>
       </c>
       <c r="Y20" t="n">
-        <v>305.5343095884998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>63.3932733534953</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.59181789762368</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>73.39382188262852</v>
       </c>
       <c r="H22" t="n">
         <v>49.68506536304975</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>63.81148634772515</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>144.5674267860225</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>314.7259711349536</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>314.6303480469716</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>309.026293874979</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>312.5733950289164</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>208.593134848454</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>198.3454425484538</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>2.348334982414016</v>
       </c>
       <c r="T23" t="n">
-        <v>120.8714752251741</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>162.9558059598997</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>254.9461823839931</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>305.243967119846</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>305.5343095884998</v>
@@ -24445,22 +24445,22 @@
         <v>377.2155217636279</v>
       </c>
       <c r="C26" t="n">
-        <v>377.1198986756459</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>371.5158445036534</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>203.6299790512827</v>
       </c>
       <c r="F26" t="n">
-        <v>182.8274342633381</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>260.8349931771281</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>225.445356588574</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>317.4357330126675</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>367.7335177485203</v>
       </c>
       <c r="Y26" t="n">
-        <v>368.0238602171742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>377.2155217636279</v>
+        <v>355.7135929049118</v>
       </c>
       <c r="C29" t="n">
-        <v>377.1198986756459</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>371.5158445036534</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>387.9166618216327</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>260.8349931771281</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.83788561108834</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>183.3610258538484</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>225.445356588574</v>
       </c>
       <c r="V29" t="n">
-        <v>298.8700562604423</v>
+        <v>317.4357330126675</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>351.0192517519665</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>223.3322432465179</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>322.9424379162879</v>
       </c>
       <c r="E32" t="n">
         <v>332.7199606366901</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>339.3432552342671</v>
       </c>
       <c r="G32" t="n">
-        <v>325.4005969458345</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2615865897627</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>28.50529923166812</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>319.4504536298086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>328.6421151762624</v>
       </c>
       <c r="C35" t="n">
-        <v>320.758347714157</v>
+        <v>328.5464920882804</v>
       </c>
       <c r="D35" t="n">
         <v>322.9424379162879</v>
@@ -25165,7 +25165,7 @@
         <v>332.7199606366901</v>
       </c>
       <c r="F35" t="n">
-        <v>339.3432552342672</v>
+        <v>339.3432552342671</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>176.8719500012085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>268.8623264253019</v>
       </c>
       <c r="W35" t="n">
-        <v>302.445845164601</v>
+        <v>193.47566281993</v>
       </c>
       <c r="X35" t="n">
-        <v>319.1601111611549</v>
+        <v>319.1601111611548</v>
       </c>
       <c r="Y35" t="n">
-        <v>319.4504536298086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>108.3458566385218</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>91.90558602231849</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>80.42284553873691</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>87.30996592393734</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>93.26483041198783</v>
       </c>
       <c r="T37" t="n">
-        <v>156.2963787810238</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.8539377729467</v>
+        <v>92.86702050486417</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>328.6421151762625</v>
+        <v>328.6421151762624</v>
       </c>
       <c r="C38" t="n">
-        <v>328.5464920882804</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>322.9424379162879</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>332.7199606366901</v>
       </c>
       <c r="F38" t="n">
-        <v>5.905080682244204</v>
+        <v>339.3432552342671</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>325.4005969458344</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2615865897627</v>
+        <v>212.2615865897626</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.26447902372284</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>134.7876192664829</v>
       </c>
       <c r="U38" t="n">
-        <v>176.8719500012085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>268.8623264253019</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>302.445845164601</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>319.1601111611549</v>
+        <v>118.1443360627785</v>
       </c>
       <c r="Y38" t="n">
-        <v>151.7899372293485</v>
+        <v>319.4504536298086</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>108.3458566385218</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>76.00111343162011</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>87.30996592393734</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>13.91614404130879</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>93.26483041198783</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>106.2678190910701</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>158.4835708273313</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>145.0114889335408</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>24.10738672845611</v>
+        <v>357.545561280479</v>
       </c>
       <c r="C41" t="n">
-        <v>357.4499381924971</v>
+        <v>357.449938192497</v>
       </c>
       <c r="D41" t="n">
-        <v>351.8458840205046</v>
+        <v>351.8458840205045</v>
       </c>
       <c r="E41" t="n">
-        <v>28.18523218888379</v>
+        <v>361.6234067409067</v>
       </c>
       <c r="F41" t="n">
-        <v>34.80852678646085</v>
+        <v>361.243199916578</v>
       </c>
       <c r="G41" t="n">
-        <v>346.9446567265481</v>
+        <v>20.86586849802808</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>163.6910653706996</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.7753961054252</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>297.7657725295186</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>331.3492912688176</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>137.2493027427385</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>120.8090321265351</v>
       </c>
       <c r="D43" t="n">
-        <v>109.3262916429536</v>
+        <v>109.3262916429535</v>
       </c>
       <c r="E43" t="n">
         <v>110.7283003929982</v>
       </c>
       <c r="F43" t="n">
-        <v>114.4114080431492</v>
+        <v>114.4114080431491</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>82.05299156109322</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>92.5046555085752</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>42.81959014552543</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.2772660143503529</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>67.61784190288498</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>227.7055612588488</v>
       </c>
       <c r="X43" t="n">
-        <v>187.387016931548</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>173.9149350377575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>357.5455612804791</v>
+        <v>357.545561280479</v>
       </c>
       <c r="C44" t="n">
-        <v>357.4499381924971</v>
+        <v>141.5874462719526</v>
       </c>
       <c r="D44" t="n">
-        <v>299.3185725690623</v>
+        <v>351.8458840205045</v>
       </c>
       <c r="E44" t="n">
-        <v>28.18523218888373</v>
+        <v>361.6234067409067</v>
       </c>
       <c r="F44" t="n">
-        <v>34.80852678646079</v>
+        <v>368.2467013384838</v>
       </c>
       <c r="G44" t="n">
-        <v>20.86586849802808</v>
+        <v>20.86586849802814</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>45.1679251279395</v>
+        <v>45.16792512793945</v>
       </c>
       <c r="T44" t="n">
-        <v>163.6910653706996</v>
+        <v>163.6910653706995</v>
       </c>
       <c r="U44" t="n">
-        <v>205.7753961054252</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>297.7657725295186</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>331.3492912688176</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>137.2493027427385</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>120.8090321265352</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>109.3262916429536</v>
+        <v>109.3262916429535</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>114.4114080431491</v>
       </c>
       <c r="G46" t="n">
-        <v>116.213412028154</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>7.076560199592876</v>
+        <v>92.5046555085752</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>42.81959014552543</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.2772660143503529</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>122.1682765162045</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>231.3536101984338</v>
       </c>
       <c r="V46" t="n">
-        <v>222.5734810225078</v>
+        <v>13.85906358708033</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>187.387016931548</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>173.9149350377574</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>369651.4360454426</v>
+        <v>369651.4360454425</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>369651.4360454425</v>
+        <v>369651.4360454426</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>369651.4360454425</v>
+        <v>369651.4360454426</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>468076.694316308</v>
+        <v>468076.6943163078</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>474601.0733029347</v>
+        <v>474601.0733029348</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>515198.7265286549</v>
+        <v>515198.726528655</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>322296.5424742623</v>
+        <v>322296.5424742624</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>322296.5424742623</v>
+        <v>322296.5424742622</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>648009.6978780747</v>
       </c>
       <c r="C2" t="n">
-        <v>648009.6978780744</v>
+        <v>648009.6978780749</v>
       </c>
       <c r="D2" t="n">
-        <v>648009.6978780748</v>
+        <v>648009.6978780747</v>
       </c>
       <c r="E2" t="n">
-        <v>467122.2755934684</v>
+        <v>467122.2755934683</v>
       </c>
       <c r="F2" t="n">
-        <v>467122.2755934686</v>
+        <v>467122.2755934685</v>
       </c>
       <c r="G2" t="n">
-        <v>467122.2755934686</v>
+        <v>467122.2755934685</v>
       </c>
       <c r="H2" t="n">
-        <v>467122.2755934684</v>
+        <v>467122.2755934685</v>
       </c>
       <c r="I2" t="n">
-        <v>527446.0153783518</v>
+        <v>527446.0153783517</v>
       </c>
       <c r="J2" t="n">
+        <v>500419.6712249799</v>
+      </c>
+      <c r="K2" t="n">
         <v>500419.67122498</v>
       </c>
-      <c r="K2" t="n">
-        <v>500419.6712249803</v>
-      </c>
       <c r="L2" t="n">
-        <v>554549.8755259403</v>
+        <v>554549.8755259401</v>
       </c>
       <c r="M2" t="n">
-        <v>446604.3128189628</v>
+        <v>446604.312818963</v>
       </c>
       <c r="N2" t="n">
         <v>446604.3128189628</v>
       </c>
       <c r="O2" t="n">
-        <v>403982.4174985611</v>
+        <v>403982.4174985613</v>
       </c>
       <c r="P2" t="n">
-        <v>403982.4174985612</v>
+        <v>403982.4174985614</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525111.3146152949</v>
+        <v>525111.314615295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>46597.00163462779</v>
       </c>
       <c r="J3" t="n">
-        <v>59214.551870447</v>
+        <v>59214.55187044699</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38858.7252698924</v>
+        <v>38858.72526989244</v>
       </c>
       <c r="M3" t="n">
         <v>5050.632223042029</v>
@@ -26450,16 +26450,16 @@
         <v>159318.4592012865</v>
       </c>
       <c r="M4" t="n">
-        <v>102719.8945943844</v>
+        <v>102719.8945943845</v>
       </c>
       <c r="N4" t="n">
-        <v>102719.8945943844</v>
+        <v>102719.8945943845</v>
       </c>
       <c r="O4" t="n">
-        <v>78392.72004718572</v>
+        <v>78392.72004718576</v>
       </c>
       <c r="P4" t="n">
-        <v>78392.72004718571</v>
+        <v>78392.72004718575</v>
       </c>
     </row>
     <row r="5">
@@ -26493,7 +26493,7 @@
         <v>48173.56581067618</v>
       </c>
       <c r="J5" t="n">
-        <v>51307.02823059513</v>
+        <v>51307.02823059512</v>
       </c>
       <c r="K5" t="n">
         <v>51307.02823059512</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>248959.1120453665</v>
+        <v>248950.3123597371</v>
       </c>
       <c r="C6" t="n">
-        <v>248959.1120453662</v>
+        <v>248950.3123597374</v>
       </c>
       <c r="D6" t="n">
-        <v>248959.1120453667</v>
+        <v>248950.3123597371</v>
       </c>
       <c r="E6" t="n">
-        <v>-209939.5696751548</v>
+        <v>-210400.5879164959</v>
       </c>
       <c r="F6" t="n">
-        <v>315171.7449401403</v>
+        <v>314710.7266987993</v>
       </c>
       <c r="G6" t="n">
-        <v>315171.7449401403</v>
+        <v>314710.7266987993</v>
       </c>
       <c r="H6" t="n">
-        <v>315171.7449401401</v>
+        <v>314710.7266987993</v>
       </c>
       <c r="I6" t="n">
-        <v>287147.4307962892</v>
+        <v>286837.2219044103</v>
       </c>
       <c r="J6" t="n">
-        <v>261404.0138839784</v>
+        <v>261026.2391317163</v>
       </c>
       <c r="K6" t="n">
-        <v>320618.5657544257</v>
+        <v>320240.7910021634</v>
       </c>
       <c r="L6" t="n">
-        <v>300982.1451057731</v>
+        <v>300739.695864263</v>
       </c>
       <c r="M6" t="n">
-        <v>302484.0438654228</v>
+        <v>301971.7307171457</v>
       </c>
       <c r="N6" t="n">
-        <v>307534.6760884648</v>
+        <v>307022.3629401875</v>
       </c>
       <c r="O6" t="n">
-        <v>291669.8391257972</v>
+        <v>291050.9712392191</v>
       </c>
       <c r="P6" t="n">
-        <v>291669.8391257973</v>
+        <v>291050.9712392193</v>
       </c>
     </row>
   </sheetData>
@@ -26709,25 +26709,25 @@
         <v>91.39299673289096</v>
       </c>
       <c r="J2" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="K2" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="L2" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="M2" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="N2" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="O2" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="P2" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
     </row>
     <row r="3">
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>438.683467634037</v>
+        <v>438.6834676340371</v>
       </c>
       <c r="F3" t="n">
         <v>438.6834676340371</v>
@@ -26831,7 +26831,7 @@
         <v>333.438174552023</v>
       </c>
       <c r="P4" t="n">
-        <v>333.438174552023</v>
+        <v>333.4381745520229</v>
       </c>
     </row>
   </sheetData>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48.5734065873655</v>
+        <v>48.57340658736555</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>438.683467634037</v>
+        <v>438.6834676340371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28110,7 +28110,7 @@
         <v>91.39299673289096</v>
       </c>
       <c r="I11" t="n">
-        <v>17.49892089142936</v>
+        <v>17.49892089142935</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28171,22 +28171,22 @@
         <v>91.39299673289096</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>91.39299673289096</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>70.74299925273534</v>
-      </c>
       <c r="G12" t="n">
-        <v>91.39299673289096</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>60.92671257303592</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28219,25 +28219,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>40.27671509288012</v>
       </c>
       <c r="T12" t="n">
         <v>91.39299673289096</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>91.39299673289096</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>91.39299673289096</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>91.39299673289096</v>
       </c>
       <c r="X12" t="n">
         <v>91.39299673289096</v>
       </c>
       <c r="Y12" t="n">
-        <v>91.39299673289096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.85067260171588</v>
+        <v>48.85067260171587</v>
       </c>
       <c r="S13" t="n">
         <v>91.39299673289096</v>
@@ -28408,22 +28408,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>91.39299673289096</v>
+        <v>72.75253228775544</v>
       </c>
       <c r="D15" t="n">
         <v>91.39299673289096</v>
       </c>
       <c r="E15" t="n">
-        <v>42.28624812790044</v>
+        <v>91.39299673289096</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>91.39299673289096</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>91.39299673289096</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>60.92671257303592</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28459,22 +28459,22 @@
         <v>89.38346369787061</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>91.39299673289096</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>91.39299673289096</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>91.39299673289096</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>91.39299673289096</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>91.39299673289096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28642,64 +28642,64 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>91.39299673289096</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>89.38346369787061</v>
+      </c>
+      <c r="T18" t="n">
         <v>91.39299673289096</v>
       </c>
-      <c r="E18" t="n">
+      <c r="U18" t="n">
         <v>91.39299673289096</v>
-      </c>
-      <c r="F18" t="n">
-        <v>91.39299673289096</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>40.27671509288007</v>
       </c>
       <c r="V18" t="n">
         <v>91.39299673289096</v>
@@ -28708,10 +28708,10 @@
         <v>91.39299673289096</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>91.39299673289096</v>
       </c>
       <c r="Y18" t="n">
-        <v>91.39299673289096</v>
+        <v>42.28624812790042</v>
       </c>
     </row>
     <row r="19">
@@ -28882,16 +28882,16 @@
         <v>91.39299673289096</v>
       </c>
       <c r="C21" t="n">
-        <v>91.39299673289096</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>91.39299673289096</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>91.39299673289096</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>91.39299673289096</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>91.39299673289096</v>
@@ -28933,22 +28933,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>70.74299925273515</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>70.74299925273506</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>91.39299673289096</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>91.39299673289096</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>91.39299673289096</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>91.39299673289096</v>
       </c>
     </row>
     <row r="22">
@@ -29195,25 +29195,25 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>35.00126993813498</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>91.39299673289096</v>
       </c>
-      <c r="C25" t="n">
+      <c r="H25" t="n">
         <v>91.39299673289096</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>35.00126993813517</v>
       </c>
       <c r="I25" t="n">
         <v>91.39299673289096</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="C26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="D26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="E26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="F26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="G26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="H26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="I26" t="n">
         <v>17.49892089142935</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="T26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="U26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="V26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="W26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="X26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="Y26" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="C28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="D28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="E28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="F28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="G28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="H28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="I28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="J28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="K28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="L28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="M28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="N28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="O28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="P28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="R28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="S28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="T28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="U28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="V28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="W28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="X28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
       <c r="Y28" t="n">
-        <v>28.90344610421666</v>
+        <v>28.90344610421664</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="C29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="D29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="E29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="F29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="G29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="H29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="I29" t="n">
         <v>17.49892089142935</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="T29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="U29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="V29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="W29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="X29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="Y29" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="C31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="D31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="E31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="F31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="G31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="H31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="I31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="J31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="K31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="L31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="M31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="N31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="O31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="P31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="R31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="S31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="T31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="U31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="V31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="W31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="X31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
       <c r="Y31" t="n">
-        <v>28.90344610421664</v>
+        <v>28.90344610421661</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="C32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="D32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="E32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="F32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="G32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="H32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="I32" t="n">
         <v>17.49892089142935</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="T32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="U32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="V32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="W32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="X32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="Y32" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
     </row>
     <row r="33">
@@ -29909,25 +29909,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>77.47685269158214</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="E34" t="n">
-        <v>20.41578374703499</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="F34" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -29954,28 +29954,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>48.85067260171588</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="T34" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>69.2664563487503</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>77.47685269158214</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>77.47685269158214</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>77.47685269158214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="C35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="D35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="E35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="F35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="G35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="H35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="I35" t="n">
         <v>17.49892089142935</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="T35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="U35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="V35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="W35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="X35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="Y35" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.47685269158214</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>77.47685269158214</v>
+        <v>76.76301080900564</v>
       </c>
       <c r="D36" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>60.92671257303592</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30115,25 +30115,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="T36" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="U36" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>77.47685269158214</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>60.21287069045984</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="Y36" t="n">
-        <v>77.47685269158214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="C37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="D37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="E37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="F37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="G37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="H37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="I37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30194,25 +30194,25 @@
         <v>48.85067260171588</v>
       </c>
       <c r="S37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="T37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="U37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="V37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="W37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="X37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="Y37" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="C38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="D38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="E38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="F38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="G38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="H38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="I38" t="n">
         <v>17.49892089142935</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="T38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="U38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="V38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="W38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="X38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="Y38" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
     </row>
     <row r="39">
@@ -30301,22 +30301,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="D39" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="E39" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="F39" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="G39" t="n">
-        <v>76.76301080900596</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="H39" t="n">
         <v>60.92671257303592</v>
@@ -30355,22 +30355,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>77.47685269158214</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>77.47685269158214</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>77.47685269158214</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>76.76301080900578</v>
       </c>
       <c r="Y39" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
     </row>
     <row r="40">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="C40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="D40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="E40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="F40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="G40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="H40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="I40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30431,25 +30431,25 @@
         <v>48.85067260171588</v>
       </c>
       <c r="S40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="T40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="U40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="V40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="W40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="X40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
       <c r="Y40" t="n">
-        <v>77.47685269158214</v>
+        <v>77.47685269158217</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="C41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="D41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="E41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="F41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="G41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="H41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="I41" t="n">
         <v>17.49892089142935</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="T41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="U41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="V41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="W41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="X41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="Y41" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
     </row>
     <row r="42">
@@ -30538,25 +30538,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="C42" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="D42" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="E42" t="n">
-        <v>48.57340658736568</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="F42" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="G42" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="H42" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736521</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30589,25 +30589,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="T42" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="U42" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="V42" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="W42" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="X42" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="Y42" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
     </row>
     <row r="43">
@@ -30617,28 +30617,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="C43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="D43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="E43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="F43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="G43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="H43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="I43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30665,28 +30665,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="S43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="T43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="U43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="V43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="W43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="X43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="C44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="D44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="E44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="F44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="G44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="H44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="I44" t="n">
         <v>17.49892089142935</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="T44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="U44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="V44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="W44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="X44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="Y44" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
     </row>
     <row r="45">
@@ -30775,25 +30775,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="C45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="D45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="E45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="F45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="G45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="H45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30826,25 +30826,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="T45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="U45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="V45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="W45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="X45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="Y45" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
     </row>
     <row r="46">
@@ -30854,28 +30854,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="C46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="D46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="E46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="F46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="G46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="H46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="I46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30902,28 +30902,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="S46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="T46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="U46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="V46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="W46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="X46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.57340658736548</v>
+        <v>48.57340658736553</v>
       </c>
     </row>
   </sheetData>
@@ -31755,19 +31755,19 @@
         <v>1.763551628679545</v>
       </c>
       <c r="H11" t="n">
-        <v>18.06097311721439</v>
+        <v>18.0609731172144</v>
       </c>
       <c r="I11" t="n">
-        <v>67.9893241646682</v>
+        <v>67.98932416466822</v>
       </c>
       <c r="J11" t="n">
-        <v>149.6792400446406</v>
+        <v>149.6792400446407</v>
       </c>
       <c r="K11" t="n">
-        <v>224.3303804866458</v>
+        <v>224.3303804866459</v>
       </c>
       <c r="L11" t="n">
-        <v>278.3016736428474</v>
+        <v>278.3016736428475</v>
       </c>
       <c r="M11" t="n">
         <v>309.6642349193773</v>
@@ -31776,25 +31776,25 @@
         <v>314.6749259843631</v>
       </c>
       <c r="O11" t="n">
-        <v>297.1386094766808</v>
+        <v>297.1386094766809</v>
       </c>
       <c r="P11" t="n">
-        <v>253.6009286436545</v>
+        <v>253.6009286436546</v>
       </c>
       <c r="Q11" t="n">
         <v>190.4437359415683</v>
       </c>
       <c r="R11" t="n">
-        <v>110.7796999950415</v>
+        <v>110.7796999950416</v>
       </c>
       <c r="S11" t="n">
-        <v>40.18693273853516</v>
+        <v>40.18693273853517</v>
       </c>
       <c r="T11" t="n">
-        <v>7.71994725454471</v>
+        <v>7.719947254544712</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1410841302943635</v>
+        <v>0.1410841302943636</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9435833077411363</v>
+        <v>0.9435833077411365</v>
       </c>
       <c r="H12" t="n">
-        <v>9.113028261605185</v>
+        <v>9.113028261605187</v>
       </c>
       <c r="I12" t="n">
-        <v>32.48740774459614</v>
+        <v>32.48740774459615</v>
       </c>
       <c r="J12" t="n">
-        <v>89.14792996513955</v>
+        <v>89.14792996513958</v>
       </c>
       <c r="K12" t="n">
         <v>152.3680115837957</v>
       </c>
       <c r="L12" t="n">
-        <v>204.877594954934</v>
+        <v>204.8775949549341</v>
       </c>
       <c r="M12" t="n">
-        <v>239.0824898605501</v>
+        <v>239.0824898605502</v>
       </c>
       <c r="N12" t="n">
-        <v>245.4102919550072</v>
+        <v>245.4102919550073</v>
       </c>
       <c r="O12" t="n">
-        <v>224.5024723466378</v>
+        <v>224.5024723466379</v>
       </c>
       <c r="P12" t="n">
         <v>180.1830265457614</v>
       </c>
       <c r="Q12" t="n">
-        <v>120.4475815285001</v>
+        <v>120.4475815285002</v>
       </c>
       <c r="R12" t="n">
-        <v>58.5849355455418</v>
+        <v>58.58493554554181</v>
       </c>
       <c r="S12" t="n">
         <v>17.52664608896364</v>
       </c>
       <c r="T12" t="n">
-        <v>3.803302893921508</v>
+        <v>3.803302893921509</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06207784919349583</v>
+        <v>0.06207784919349585</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7910685481925257</v>
+        <v>0.7910685481925259</v>
       </c>
       <c r="H13" t="n">
-        <v>7.033318546657188</v>
+        <v>7.03331854665719</v>
       </c>
       <c r="I13" t="n">
-        <v>23.78958870382614</v>
+        <v>23.78958870382615</v>
       </c>
       <c r="J13" t="n">
-        <v>55.92854635721156</v>
+        <v>55.92854635721158</v>
       </c>
       <c r="K13" t="n">
-        <v>91.90778223545887</v>
+        <v>91.9077822354589</v>
       </c>
       <c r="L13" t="n">
         <v>117.6103185194597</v>
       </c>
       <c r="M13" t="n">
-        <v>124.0035906953065</v>
+        <v>124.0035906953066</v>
       </c>
       <c r="N13" t="n">
         <v>121.0550624702254</v>
@@ -31937,10 +31937,10 @@
         <v>111.8139435208854</v>
       </c>
       <c r="P13" t="n">
-        <v>95.6761451377578</v>
+        <v>95.67614513775781</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.24120361273958</v>
+        <v>66.24120361273961</v>
       </c>
       <c r="R13" t="n">
         <v>35.56931853963847</v>
@@ -31949,10 +31949,10 @@
         <v>13.78616733531883</v>
       </c>
       <c r="T13" t="n">
-        <v>3.380020160458972</v>
+        <v>3.380020160458973</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04314919353777417</v>
+        <v>0.04314919353777419</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>67.98932416466822</v>
       </c>
       <c r="J44" t="n">
-        <v>149.6792400446412</v>
+        <v>149.6792400446408</v>
       </c>
       <c r="K44" t="n">
         <v>224.3303804866458</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>76.35564871133269</v>
+        <v>76.35564871133272</v>
       </c>
       <c r="K11" t="n">
         <v>135.1939908134287</v>
       </c>
       <c r="L11" t="n">
-        <v>182.8162755800026</v>
+        <v>182.8162755800027</v>
       </c>
       <c r="M11" t="n">
         <v>216.3740104623319</v>
@@ -35424,16 +35424,16 @@
         <v>221.7626352277438</v>
       </c>
       <c r="O11" t="n">
-        <v>203.9488338508977</v>
+        <v>203.9488338508978</v>
       </c>
       <c r="P11" t="n">
-        <v>159.9515653627704</v>
+        <v>159.9515653627705</v>
       </c>
       <c r="Q11" t="n">
-        <v>100.4099315424162</v>
+        <v>100.4099315424163</v>
       </c>
       <c r="R11" t="n">
-        <v>23.46755718031801</v>
+        <v>23.46755718031805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>11.94630227863392</v>
       </c>
       <c r="J12" t="n">
-        <v>107.9147504384876</v>
+        <v>283.9083921496176</v>
       </c>
       <c r="K12" t="n">
-        <v>333.4381745520229</v>
+        <v>96.54222879918032</v>
       </c>
       <c r="L12" t="n">
         <v>148.763071144085</v>
       </c>
       <c r="M12" t="n">
-        <v>181.5182061221327</v>
+        <v>181.5182061221328</v>
       </c>
       <c r="N12" t="n">
-        <v>192.2168985612572</v>
+        <v>192.2168985612573</v>
       </c>
       <c r="O12" t="n">
-        <v>166.7509933466378</v>
+        <v>166.7509933466379</v>
       </c>
       <c r="P12" t="n">
-        <v>125.9233915429576</v>
+        <v>125.9233915429577</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.75496302366142</v>
+        <v>112.7109647867398</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.495400674256139</v>
+        <v>4.49540067425616</v>
       </c>
       <c r="K13" t="n">
-        <v>39.65741267639204</v>
+        <v>207.710518324692</v>
       </c>
       <c r="L13" t="n">
-        <v>62.98202462555819</v>
+        <v>62.98202462555823</v>
       </c>
       <c r="M13" t="n">
         <v>333.4381745520229</v>
@@ -35582,13 +35582,13 @@
         <v>333.4381745520229</v>
       </c>
       <c r="O13" t="n">
-        <v>237.958468611315</v>
+        <v>333.4381745520229</v>
       </c>
       <c r="P13" t="n">
-        <v>303.4291150868612</v>
+        <v>39.89630349785303</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.881677952814016</v>
+        <v>4.881677952814044</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>37.77869116513956</v>
+        <v>283.9083921496176</v>
       </c>
       <c r="K15" t="n">
         <v>96.54222879918029</v>
@@ -35743,13 +35743,13 @@
         <v>166.7509933466378</v>
       </c>
       <c r="P15" t="n">
-        <v>163.2721850407869</v>
+        <v>125.9233915429577</v>
       </c>
       <c r="Q15" t="n">
-        <v>333.438174552023</v>
+        <v>63.75496302366143</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>60.90230404171268</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>4.495400674256153</v>
       </c>
       <c r="K16" t="n">
-        <v>39.65741267639206</v>
+        <v>248.0212445811538</v>
       </c>
       <c r="L16" t="n">
-        <v>62.9820246255582</v>
+        <v>333.438174552023</v>
       </c>
       <c r="M16" t="n">
         <v>333.438174552023</v>
       </c>
       <c r="N16" t="n">
-        <v>237.9584686113149</v>
+        <v>69.34241696180598</v>
       </c>
       <c r="O16" t="n">
-        <v>333.438174552023</v>
+        <v>55.73904544788909</v>
       </c>
       <c r="P16" t="n">
-        <v>303.4291150868612</v>
+        <v>270.9243140092775</v>
       </c>
       <c r="Q16" t="n">
         <v>4.88167795281403</v>
@@ -35965,7 +35965,7 @@
         <v>37.77869116513956</v>
       </c>
       <c r="K18" t="n">
-        <v>173.9099219227707</v>
+        <v>96.54222879918029</v>
       </c>
       <c r="L18" t="n">
         <v>148.763071144085</v>
@@ -35974,7 +35974,7 @@
         <v>181.5182061221327</v>
       </c>
       <c r="N18" t="n">
-        <v>333.438174552023</v>
+        <v>192.2168985612572</v>
       </c>
       <c r="O18" t="n">
         <v>166.7509933466378</v>
@@ -35983,7 +35983,7 @@
         <v>125.9233915429577</v>
       </c>
       <c r="Q18" t="n">
-        <v>63.75496302366143</v>
+        <v>282.3439321380176</v>
       </c>
       <c r="R18" t="n">
         <v>88.44303591183463</v>
@@ -36047,19 +36047,19 @@
         <v>39.65741267639206</v>
       </c>
       <c r="L19" t="n">
-        <v>62.9820246255582</v>
+        <v>333.438174552023</v>
       </c>
       <c r="M19" t="n">
         <v>333.438174552023</v>
       </c>
       <c r="N19" t="n">
-        <v>237.9584686113149</v>
+        <v>231.0351302738584</v>
       </c>
       <c r="O19" t="n">
         <v>333.438174552023</v>
       </c>
       <c r="P19" t="n">
-        <v>303.4291150868612</v>
+        <v>39.89630349785303</v>
       </c>
       <c r="Q19" t="n">
         <v>4.88167795281403</v>
@@ -36144,7 +36144,7 @@
         <v>100.4099315424163</v>
       </c>
       <c r="R20" t="n">
-        <v>23.46755718031802</v>
+        <v>23.46755718031848</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>11.94630227863392</v>
       </c>
       <c r="J21" t="n">
-        <v>77.73417679547676</v>
+        <v>37.77869116513956</v>
       </c>
       <c r="K21" t="n">
         <v>96.54222879918029</v>
@@ -36214,13 +36214,13 @@
         <v>192.2168985612572</v>
       </c>
       <c r="O21" t="n">
-        <v>333.438174552023</v>
+        <v>166.7509933466378</v>
       </c>
       <c r="P21" t="n">
         <v>125.9233915429577</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.75496302366143</v>
+        <v>270.3976298593838</v>
       </c>
       <c r="R21" t="n">
         <v>88.44303591183463</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.495400674256153</v>
+        <v>70.15334373621209</v>
       </c>
       <c r="K22" t="n">
-        <v>39.65741267639206</v>
+        <v>142.0525752627363</v>
       </c>
       <c r="L22" t="n">
-        <v>233.2018450403466</v>
+        <v>62.9820246255582</v>
       </c>
       <c r="M22" t="n">
-        <v>67.7386481965265</v>
+        <v>333.438174552023</v>
       </c>
       <c r="N22" t="n">
         <v>333.438174552023</v>
@@ -36296,7 +36296,7 @@
         <v>333.438174552023</v>
       </c>
       <c r="P22" t="n">
-        <v>303.4291150868612</v>
+        <v>39.89630349785303</v>
       </c>
       <c r="Q22" t="n">
         <v>4.88167795281403</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>76.35564871133269</v>
+        <v>406.4322415272208</v>
       </c>
       <c r="K23" t="n">
         <v>135.1939908134287</v>
       </c>
       <c r="L23" t="n">
-        <v>456.0799293058214</v>
+        <v>182.8162755800027</v>
       </c>
       <c r="M23" t="n">
-        <v>508.6669140446836</v>
+        <v>216.3740104623319</v>
       </c>
       <c r="N23" t="n">
         <v>221.7626352277438</v>
@@ -36378,7 +36378,7 @@
         <v>159.9515653627704</v>
       </c>
       <c r="Q23" t="n">
-        <v>100.4099315424163</v>
+        <v>335.8898960346985</v>
       </c>
       <c r="R23" t="n">
         <v>151.7460087723798</v>
@@ -36439,7 +36439,7 @@
         <v>283.9083921496176</v>
       </c>
       <c r="K24" t="n">
-        <v>96.54222879918029</v>
+        <v>429.2623738021134</v>
       </c>
       <c r="L24" t="n">
         <v>148.763071144085</v>
@@ -36454,10 +36454,10 @@
         <v>166.7509933466378</v>
       </c>
       <c r="P24" t="n">
-        <v>508.6669140446836</v>
+        <v>125.9233915429577</v>
       </c>
       <c r="Q24" t="n">
-        <v>423.8024511852461</v>
+        <v>473.8258286840389</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>70.15334373621209</v>
       </c>
       <c r="K25" t="n">
-        <v>248.0212445811538</v>
+        <v>196.5855509285007</v>
       </c>
       <c r="L25" t="n">
         <v>380.1326420346724</v>
@@ -36536,7 +36536,7 @@
         <v>39.89630349785303</v>
       </c>
       <c r="Q25" t="n">
-        <v>80.99543905353157</v>
+        <v>132.4311327061849</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>406.4322415272208</v>
       </c>
       <c r="K26" t="n">
-        <v>135.1939908134287</v>
+        <v>646.6092898953573</v>
       </c>
       <c r="L26" t="n">
         <v>182.8162755800027</v>
       </c>
       <c r="M26" t="n">
-        <v>583.6111872618754</v>
+        <v>614.9132015401426</v>
       </c>
       <c r="N26" t="n">
         <v>221.7626352277438</v>
@@ -36615,10 +36615,10 @@
         <v>159.9515653627704</v>
       </c>
       <c r="Q26" t="n">
-        <v>514.8487933105501</v>
+        <v>100.4099315424163</v>
       </c>
       <c r="R26" t="n">
-        <v>151.7460087723798</v>
+        <v>23.46755718031802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>283.9083921496176</v>
+        <v>112.3386967826309</v>
       </c>
       <c r="K27" t="n">
         <v>612.7783714477338</v>
@@ -36691,13 +36691,13 @@
         <v>166.7509933466378</v>
       </c>
       <c r="P27" t="n">
-        <v>275.9815259245137</v>
+        <v>125.9233915429577</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.75496302366143</v>
+        <v>473.8258286840389</v>
       </c>
       <c r="R27" t="n">
-        <v>88.44303591183463</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>99.05678984042875</v>
+        <v>99.05678984042873</v>
       </c>
       <c r="K28" t="n">
         <v>276.9246906853705</v>
@@ -36773,7 +36773,7 @@
         <v>332.3325611910778</v>
       </c>
       <c r="Q28" t="n">
-        <v>161.3345788104016</v>
+        <v>161.3345788104015</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>76.35564871133269</v>
       </c>
       <c r="K29" t="n">
-        <v>135.1939908134287</v>
+        <v>368.7147461135056</v>
       </c>
       <c r="L29" t="n">
         <v>646.6092898953573</v>
@@ -36849,10 +36849,10 @@
         <v>203.9488338508978</v>
       </c>
       <c r="P29" t="n">
-        <v>646.6092898953573</v>
+        <v>159.9515653627704</v>
       </c>
       <c r="Q29" t="n">
-        <v>261.7118240780403</v>
+        <v>514.8487933105501</v>
       </c>
       <c r="R29" t="n">
         <v>151.7460087723798</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>11.94630227863392</v>
       </c>
       <c r="J30" t="n">
-        <v>37.77869116513956</v>
+        <v>283.9083921496176</v>
       </c>
       <c r="K30" t="n">
-        <v>96.54222879918029</v>
+        <v>340.8193378902785</v>
       </c>
       <c r="L30" t="n">
         <v>148.763071144085</v>
@@ -36925,16 +36925,16 @@
         <v>192.2168985612572</v>
       </c>
       <c r="O30" t="n">
-        <v>236.861243260283</v>
+        <v>166.7509933466378</v>
       </c>
       <c r="P30" t="n">
-        <v>646.6092898953573</v>
+        <v>125.9233915429577</v>
       </c>
       <c r="Q30" t="n">
         <v>473.8258286840389</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.44303591183463</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>99.05678984042873</v>
+        <v>99.05678984042871</v>
       </c>
       <c r="K31" t="n">
-        <v>276.9246906853705</v>
+        <v>276.9246906853704</v>
       </c>
       <c r="L31" t="n">
-        <v>409.0360881388891</v>
+        <v>409.036088138889</v>
       </c>
       <c r="M31" t="n">
         <v>445.092952395981</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>76.35564871133269</v>
+        <v>406.4322415272208</v>
       </c>
       <c r="K32" t="n">
-        <v>135.1939908134287</v>
+        <v>646.6092898953573</v>
       </c>
       <c r="L32" t="n">
-        <v>182.8162755800027</v>
+        <v>581.3554666578135</v>
       </c>
       <c r="M32" t="n">
-        <v>646.6092898953573</v>
+        <v>216.3740104623319</v>
       </c>
       <c r="N32" t="n">
         <v>221.7626352277438</v>
@@ -37086,13 +37086,13 @@
         <v>203.9488338508978</v>
       </c>
       <c r="P32" t="n">
-        <v>427.0300555451768</v>
+        <v>159.9515653627704</v>
       </c>
       <c r="Q32" t="n">
-        <v>514.8487933105501</v>
+        <v>100.4099315424163</v>
       </c>
       <c r="R32" t="n">
-        <v>151.7460087723798</v>
+        <v>23.46755718031802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>11.94630227863392</v>
       </c>
       <c r="J33" t="n">
-        <v>37.77869116513956</v>
+        <v>283.9083921496176</v>
       </c>
       <c r="K33" t="n">
-        <v>96.54222879918029</v>
+        <v>340.8193378902785</v>
       </c>
       <c r="L33" t="n">
         <v>148.763071144085</v>
@@ -37159,10 +37159,10 @@
         <v>181.5182061221327</v>
       </c>
       <c r="N33" t="n">
-        <v>303.1547502785825</v>
+        <v>192.2168985612572</v>
       </c>
       <c r="O33" t="n">
-        <v>646.6092898953573</v>
+        <v>166.7509933466378</v>
       </c>
       <c r="P33" t="n">
         <v>125.9233915429577</v>
@@ -37171,7 +37171,7 @@
         <v>473.8258286840389</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.44303591183463</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>159.9515653627704</v>
       </c>
       <c r="Q35" t="n">
-        <v>100.4099315424163</v>
+        <v>100.4099315424167</v>
       </c>
       <c r="R35" t="n">
-        <v>23.46755718031848</v>
+        <v>23.46755718031802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>11.94630227863392</v>
       </c>
       <c r="J36" t="n">
         <v>37.77869116513956</v>
       </c>
       <c r="K36" t="n">
-        <v>96.54222879918029</v>
+        <v>303.1848956349026</v>
       </c>
       <c r="L36" t="n">
         <v>148.763071144085</v>
@@ -37402,13 +37402,13 @@
         <v>166.7509933466378</v>
       </c>
       <c r="P36" t="n">
-        <v>163.2721850407869</v>
+        <v>125.9233915429577</v>
       </c>
       <c r="Q36" t="n">
-        <v>333.438174552023</v>
+        <v>63.75496302366143</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.44303591183463</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.495400674256153</v>
+        <v>70.15334373621209</v>
       </c>
       <c r="K37" t="n">
         <v>248.0212445811538</v>
@@ -37472,19 +37472,19 @@
         <v>333.438174552023</v>
       </c>
       <c r="M37" t="n">
+        <v>107.1630296579039</v>
+      </c>
+      <c r="N37" t="n">
         <v>333.438174552023</v>
       </c>
-      <c r="N37" t="n">
-        <v>69.34241696180598</v>
-      </c>
       <c r="O37" t="n">
-        <v>286.7670559593135</v>
+        <v>55.73904544788909</v>
       </c>
       <c r="P37" t="n">
         <v>39.89630349785303</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.88167795281403</v>
+        <v>132.4311327061849</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>182.8162755800027</v>
       </c>
       <c r="M38" t="n">
-        <v>216.3740104623319</v>
+        <v>216.3740104623323</v>
       </c>
       <c r="N38" t="n">
         <v>221.7626352277438</v>
@@ -37560,7 +37560,7 @@
         <v>203.9488338508978</v>
       </c>
       <c r="P38" t="n">
-        <v>159.9515653627708</v>
+        <v>159.9515653627704</v>
       </c>
       <c r="Q38" t="n">
         <v>100.4099315424163</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>11.94630227863392</v>
       </c>
       <c r="J39" t="n">
-        <v>283.9083921496176</v>
+        <v>37.77869116513956</v>
       </c>
       <c r="K39" t="n">
-        <v>157.444532840893</v>
+        <v>303.1848956349026</v>
       </c>
       <c r="L39" t="n">
         <v>148.763071144085</v>
@@ -37645,7 +37645,7 @@
         <v>63.75496302366143</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.44303591183463</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>39.65741267639206</v>
       </c>
       <c r="L40" t="n">
+        <v>231.0351302738584</v>
+      </c>
+      <c r="M40" t="n">
         <v>333.438174552023</v>
       </c>
-      <c r="M40" t="n">
-        <v>231.598076275067</v>
-      </c>
       <c r="N40" t="n">
-        <v>69.34241696180598</v>
+        <v>333.438174552023</v>
       </c>
       <c r="O40" t="n">
         <v>333.438174552023</v>
       </c>
       <c r="P40" t="n">
-        <v>303.4291150868612</v>
+        <v>39.89630349785303</v>
       </c>
       <c r="Q40" t="n">
         <v>4.88167795281403</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>11.94630227863392</v>
       </c>
       <c r="J42" t="n">
         <v>37.77869116513956</v>
@@ -37876,13 +37876,13 @@
         <v>166.7509933466378</v>
       </c>
       <c r="P42" t="n">
-        <v>163.2721850407869</v>
+        <v>125.9233915429577</v>
       </c>
       <c r="Q42" t="n">
-        <v>333.438174552023</v>
+        <v>270.3976298593838</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.44303591183463</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>70.15334373621209</v>
+        <v>4.495400674256153</v>
       </c>
       <c r="K43" t="n">
         <v>39.65741267639206</v>
       </c>
       <c r="L43" t="n">
+        <v>231.0351302738584</v>
+      </c>
+      <c r="M43" t="n">
         <v>333.438174552023</v>
       </c>
-      <c r="M43" t="n">
-        <v>67.7386481965265</v>
-      </c>
       <c r="N43" t="n">
-        <v>317.6935763291539</v>
+        <v>333.438174552023</v>
       </c>
       <c r="O43" t="n">
-        <v>55.73904544788909</v>
+        <v>333.438174552023</v>
       </c>
       <c r="P43" t="n">
-        <v>303.4291150868612</v>
+        <v>39.89630349785303</v>
       </c>
       <c r="Q43" t="n">
-        <v>132.4311327061849</v>
+        <v>4.88167795281403</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>76.3556487113333</v>
+        <v>76.35564871133286</v>
       </c>
       <c r="K44" t="n">
         <v>135.1939908134287</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>11.94630227863392</v>
       </c>
       <c r="J45" t="n">
-        <v>37.77869116513956</v>
+        <v>283.9083921496176</v>
       </c>
       <c r="K45" t="n">
         <v>96.54222879918029</v>
@@ -38113,13 +38113,13 @@
         <v>166.7509933466378</v>
       </c>
       <c r="P45" t="n">
-        <v>163.2721850407872</v>
+        <v>125.9233915429577</v>
       </c>
       <c r="Q45" t="n">
-        <v>333.438174552023</v>
+        <v>63.75496302366143</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>48.9560017630786</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>70.15334373621209</v>
       </c>
       <c r="K46" t="n">
-        <v>248.0212445811538</v>
+        <v>39.65741267639206</v>
       </c>
       <c r="L46" t="n">
-        <v>107.163029657904</v>
+        <v>333.4381745520229</v>
       </c>
       <c r="M46" t="n">
-        <v>333.438174552023</v>
+        <v>165.3771872119023</v>
       </c>
       <c r="N46" t="n">
-        <v>333.438174552023</v>
+        <v>333.4381745520229</v>
       </c>
       <c r="O46" t="n">
-        <v>55.73904544788909</v>
+        <v>333.4381745520229</v>
       </c>
       <c r="P46" t="n">
         <v>39.89630349785303</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.4311327061849</v>
+        <v>4.88167795281403</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
